--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_5_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1699641.127157795</v>
+        <v>1698318.563345859</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1783678.472736053</v>
+        <v>1783678.472736052</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7958122.548952624</v>
+        <v>7958122.548952625</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.11896786784456</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C2" t="n">
-        <v>140.0505786183211</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
         <v>410.1968133282722</v>
@@ -676,10 +676,10 @@
         <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
-        <v>307.7994123985592</v>
+        <v>55.54290114313304</v>
       </c>
       <c r="I2" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,13 +715,13 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -819,13 +819,13 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C4" t="n">
-        <v>169.3824387139007</v>
+        <v>119.5236191444598</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -870,10 +870,10 @@
         <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>192.7803056258802</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
         <v>271.1468876098733</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>6.11896786784456</v>
+        <v>243.2573750702322</v>
       </c>
       <c r="C5" t="n">
-        <v>328.8529098096545</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D5" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E5" t="n">
         <v>10.19681332827224</v>
@@ -913,7 +913,7 @@
         <v>4.641001266096112</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I5" t="n">
         <v>85.48824505609757</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y5" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1053,28 +1053,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>29.24177712230655</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>28.65754449710876</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -1132,28 +1132,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>126.2116499190357</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C8" t="n">
-        <v>406.0233447798626</v>
+        <v>333.9990287068568</v>
       </c>
       <c r="D8" t="n">
-        <v>400.41929060787</v>
+        <v>0.4192906078700389</v>
       </c>
       <c r="E8" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F8" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>4.641001266096112</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H8" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C10" t="n">
         <v>169.3824387139007</v>
@@ -1299,19 +1299,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>59.2880977225625</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>27.35334490128912</v>
       </c>
       <c r="X10" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>352.0529932496993</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -1384,10 +1384,10 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G11" t="n">
-        <v>269.9562877695856</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I11" t="n">
         <v>85.48824505609757</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>219.9844192126098</v>
       </c>
       <c r="U11" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>346.3391791168841</v>
@@ -1536,19 +1536,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>61.29526474944542</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>228.2601210751805</v>
       </c>
       <c r="U13" t="n">
         <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1618,10 +1618,10 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F14" t="n">
-        <v>378.9769832968749</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>359.0841816924169</v>
       </c>
       <c r="H14" t="n">
         <v>307.7994123985592</v>
@@ -1675,7 +1675,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y14" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>184.5278504388888</v>
@@ -1827,13 +1827,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059089</v>
+        <v>149.4359716544539</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1855,13 +1855,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>282.1353944293379</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>119.8051733265735</v>
       </c>
       <c r="I17" t="n">
         <v>85.48824505609757</v>
@@ -1900,7 +1900,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -2001,10 +2001,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>157.8996982303191</v>
@@ -2019,10 +2019,10 @@
         <v>165.577887163712</v>
       </c>
       <c r="H19" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,13 +2049,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>74.96543686894752</v>
+        <v>183.750781848291</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2089,7 +2089,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>275.5120998317608</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
@@ -2098,10 +2098,10 @@
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>205.2934183826711</v>
       </c>
       <c r="I20" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2137,7 +2137,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U20" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>346.3391791168841</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>271.0770354214525</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>44.64385730286099</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2335,10 +2335,10 @@
         <v>404.4697473695408</v>
       </c>
       <c r="H23" t="n">
-        <v>79.34530250563729</v>
+        <v>306.0455584304623</v>
       </c>
       <c r="I23" t="n">
-        <v>78.88597920914971</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>219.234755280439</v>
@@ -2377,7 +2377,7 @@
         <v>254.4761865113606</v>
       </c>
       <c r="V23" t="n">
-        <v>346.3391791168841</v>
+        <v>249.6647394781473</v>
       </c>
       <c r="W23" t="n">
         <v>379.9226978561831</v>
@@ -2475,22 +2475,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>28.2664732414281</v>
       </c>
       <c r="D25" t="n">
-        <v>66.30148134583281</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>147.4283934324466</v>
@@ -2526,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
         <v>235.9604235189134</v>
@@ -2569,7 +2569,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G26" t="n">
-        <v>404.4697473695408</v>
+        <v>386.6812869399521</v>
       </c>
       <c r="H26" t="n">
         <v>306.0455584304623</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>219.234755280439</v>
@@ -2614,7 +2614,7 @@
         <v>254.4761865113606</v>
       </c>
       <c r="V26" t="n">
-        <v>198.5249024012086</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
@@ -2718,22 +2718,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>132.656950411974</v>
       </c>
       <c r="H28" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>166.6357048656273</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>179.41871194302</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
         <v>406.0233447798626</v>
@@ -2812,7 +2812,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I29" t="n">
-        <v>78.88597920914971</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.234755280439</v>
+        <v>201.4462948508507</v>
       </c>
       <c r="U29" t="n">
         <v>254.4761865113606</v>
@@ -2949,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
@@ -2970,7 +2970,7 @@
         <v>147.4283934324466</v>
       </c>
       <c r="I31" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>80.9659474384828</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>24.09702927570214</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>262.3675791614164</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3049,7 +3049,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I32" t="n">
-        <v>78.88597920914971</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,10 +3085,10 @@
         <v>219.234755280439</v>
       </c>
       <c r="U32" t="n">
-        <v>254.4761865113606</v>
+        <v>27.77593058653632</v>
       </c>
       <c r="V32" t="n">
-        <v>119.6389231920607</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W32" t="n">
         <v>379.9226978561831</v>
@@ -3195,19 +3195,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>19.53225665102864</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>80.9659474384828</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T34" t="n">
         <v>236.8250266956711</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>44.61654516308631</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>179.3230888550377</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
@@ -3286,7 +3286,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I35" t="n">
-        <v>78.88597920914971</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>219.234755280439</v>
+        <v>122.5603156417023</v>
       </c>
       <c r="U35" t="n">
         <v>254.4761865113606</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>183.1891117048806</v>
+        <v>66.07896560696116</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>274.7001586729048</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
@@ -3511,7 +3511,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>183.4965574034482</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
@@ -3523,7 +3523,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I38" t="n">
-        <v>78.88597920914971</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>219.234755280439</v>
       </c>
       <c r="U38" t="n">
-        <v>254.4761865113606</v>
+        <v>236.6877260817722</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3678,7 +3678,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>37.88432998251091</v>
+        <v>24.41224808872072</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y40" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3760,7 +3760,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I41" t="n">
-        <v>78.8859792091497</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>219.234755280439</v>
+        <v>201.4462948508498</v>
       </c>
       <c r="U41" t="n">
         <v>254.4761865113606</v>
@@ -3805,7 +3805,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X41" t="n">
-        <v>169.9367079279122</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
         <v>396.9273063213908</v>
@@ -3906,19 +3906,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>112.8724405582094</v>
+        <v>60.08143046142423</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,19 +3951,19 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X43" t="n">
-        <v>105.062976714186</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>222.4883416251229</v>
@@ -3988,7 +3988,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>190.1198520010243</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
         <v>404.4697473695408</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>130.0258162860864</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>219.234755280439</v>
+        <v>122.5603156417014</v>
       </c>
       <c r="U44" t="n">
         <v>254.4761865113606</v>
@@ -4134,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>66.07896560696048</v>
+        <v>144.8057838574095</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>80.9659474384828</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>271.1468876098733</v>
@@ -4200,7 +4200,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>222.4883416251229</v>
@@ -4306,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1825.013014115527</v>
+        <v>944.4352462872621</v>
       </c>
       <c r="C2" t="n">
-        <v>1683.54778318793</v>
+        <v>938.3510596409362</v>
       </c>
       <c r="D2" t="n">
-        <v>1279.08385328099</v>
+        <v>937.9275337744008</v>
       </c>
       <c r="E2" t="n">
-        <v>864.743637797887</v>
+        <v>523.5873182912975</v>
       </c>
       <c r="F2" t="n">
-        <v>443.7132257515746</v>
+        <v>102.556906244985</v>
       </c>
       <c r="G2" t="n">
-        <v>439.0253456848109</v>
+        <v>97.86902617822129</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1168483125289</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I2" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>295.9505570973564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="K2" t="n">
-        <v>812.7934917636817</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L2" t="n">
-        <v>1329.636426430007</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M2" t="n">
-        <v>1329.636426430007</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N2" t="n">
-        <v>1329.636426430007</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="O2" t="n">
-        <v>1329.636426430007</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="P2" t="n">
-        <v>1726.536628995245</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q2" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
@@ -4363,19 +4363,19 @@
         <v>2088.254281480102</v>
       </c>
       <c r="U2" t="n">
-        <v>1831.193789739612</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="V2" t="n">
-        <v>1831.193789739612</v>
+        <v>1738.416726816583</v>
       </c>
       <c r="W2" t="n">
-        <v>1831.193789739612</v>
+        <v>1354.656425951752</v>
       </c>
       <c r="X2" t="n">
-        <v>1831.193789739612</v>
+        <v>1354.656425951752</v>
       </c>
       <c r="Y2" t="n">
-        <v>1831.193789739612</v>
+        <v>1354.656425951752</v>
       </c>
     </row>
     <row r="3">
@@ -4409,28 +4409,28 @@
         <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>497.5713418949007</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="L3" t="n">
-        <v>1014.414276561226</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="M3" t="n">
-        <v>1014.414276561226</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="N3" t="n">
-        <v>1014.414276561226</v>
+        <v>675.1644281008383</v>
       </c>
       <c r="O3" t="n">
-        <v>1221.566882129794</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
-        <v>1738.409816796119</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R3" t="n">
         <v>2088.254281480102</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>490.1153190952399</v>
+        <v>162.4960140583493</v>
       </c>
       <c r="C4" t="n">
-        <v>319.0219466569564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="D4" t="n">
-        <v>319.0219466569564</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="E4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="F4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="G4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="H4" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4518,22 +4518,22 @@
         <v>1384.772214130362</v>
       </c>
       <c r="T4" t="n">
-        <v>1384.772214130362</v>
+        <v>1145.223475107064</v>
       </c>
       <c r="U4" t="n">
-        <v>1190.044632690079</v>
+        <v>862.4253276531883</v>
       </c>
       <c r="V4" t="n">
-        <v>916.1588876296009</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="W4" t="n">
-        <v>916.1588876296009</v>
+        <v>588.5395825927103</v>
       </c>
       <c r="X4" t="n">
-        <v>677.8150254892843</v>
+        <v>350.1957204523937</v>
       </c>
       <c r="Y4" t="n">
-        <v>677.8150254892843</v>
+        <v>350.1957204523937</v>
       </c>
     </row>
     <row r="5">
@@ -4543,22 +4543,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>896.7331341082281</v>
+        <v>477.5107577130435</v>
       </c>
       <c r="C5" t="n">
-        <v>564.5584777348397</v>
+        <v>471.4265710667177</v>
       </c>
       <c r="D5" t="n">
-        <v>160.0945478279002</v>
+        <v>471.0030452001823</v>
       </c>
       <c r="E5" t="n">
-        <v>149.794736385201</v>
+        <v>460.703233757483</v>
       </c>
       <c r="F5" t="n">
-        <v>132.8047283792926</v>
+        <v>443.7132257515746</v>
       </c>
       <c r="G5" t="n">
-        <v>128.1168483125289</v>
+        <v>439.0253456848109</v>
       </c>
       <c r="H5" t="n">
         <v>128.1168483125289</v>
@@ -4570,49 +4570,49 @@
         <v>41.76508562960205</v>
       </c>
       <c r="K5" t="n">
-        <v>497.1688317915616</v>
+        <v>537.7254774811266</v>
       </c>
       <c r="L5" t="n">
-        <v>1014.011766457887</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="M5" t="n">
-        <v>1530.854701124212</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="N5" t="n">
-        <v>2047.697635790537</v>
+        <v>1054.568412147452</v>
       </c>
       <c r="O5" t="n">
-        <v>2047.697635790537</v>
+        <v>1571.411346813777</v>
       </c>
       <c r="P5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="Q5" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R5" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W5" t="n">
-        <v>1704.493980615271</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="X5" t="n">
-        <v>1303.850582784223</v>
+        <v>723.2252779860053</v>
       </c>
       <c r="Y5" t="n">
-        <v>902.9139097323135</v>
+        <v>723.2252779860053</v>
       </c>
     </row>
     <row r="6">
@@ -4652,22 +4652,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>690.384199457534</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="M6" t="n">
-        <v>1054.568412147451</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="N6" t="n">
-        <v>1054.568412147451</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O6" t="n">
-        <v>1571.411346813777</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P6" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>158.1111315252759</v>
+        <v>850.121764145656</v>
       </c>
       <c r="C7" t="n">
-        <v>158.1111315252759</v>
+        <v>679.0283917073725</v>
       </c>
       <c r="D7" t="n">
-        <v>158.1111315252759</v>
+        <v>519.5337470302825</v>
       </c>
       <c r="E7" t="n">
-        <v>158.1111315252759</v>
+        <v>358.622931898602</v>
       </c>
       <c r="F7" t="n">
-        <v>158.1111315252759</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G7" t="n">
-        <v>158.1111315252759</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H7" t="n">
-        <v>158.1111315252759</v>
+        <v>41.76508562960205</v>
       </c>
       <c r="I7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1541.626833642061</v>
       </c>
       <c r="S7" t="n">
-        <v>1485.891263925851</v>
+        <v>1541.626833642061</v>
       </c>
       <c r="T7" t="n">
-        <v>1456.944249282307</v>
+        <v>1541.626833642061</v>
       </c>
       <c r="U7" t="n">
-        <v>1174.146101828431</v>
+        <v>1541.626833642061</v>
       </c>
       <c r="V7" t="n">
-        <v>900.2603567679535</v>
+        <v>1541.626833642061</v>
       </c>
       <c r="W7" t="n">
-        <v>621.1906922768278</v>
+        <v>1262.557169150936</v>
       </c>
       <c r="X7" t="n">
-        <v>382.8468301365112</v>
+        <v>1262.557169150936</v>
       </c>
       <c r="Y7" t="n">
-        <v>158.1111315252759</v>
+        <v>1037.8214705397</v>
       </c>
     </row>
     <row r="8">
@@ -4780,46 +4780,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1603.280207151329</v>
+        <v>1305.971638044796</v>
       </c>
       <c r="C8" t="n">
-        <v>1193.155616464599</v>
+        <v>968.5988817752439</v>
       </c>
       <c r="D8" t="n">
-        <v>788.6916865576595</v>
+        <v>968.1753559087084</v>
       </c>
       <c r="E8" t="n">
-        <v>374.3514710745562</v>
+        <v>957.8755444660092</v>
       </c>
       <c r="F8" t="n">
-        <v>357.3614630686478</v>
+        <v>536.8451324196967</v>
       </c>
       <c r="G8" t="n">
-        <v>352.673583001884</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="H8" t="n">
-        <v>41.76508562960205</v>
+        <v>128.1168483125289</v>
       </c>
       <c r="I8" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L8" t="n">
-        <v>497.1688317915616</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M8" t="n">
+        <v>812.7934917636817</v>
+      </c>
+      <c r="N8" t="n">
         <v>1014.011766457887</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>1530.854701124212</v>
-      </c>
-      <c r="O8" t="n">
-        <v>2047.697635790537</v>
       </c>
       <c r="P8" t="n">
         <v>2047.697635790537</v>
@@ -4834,22 +4834,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>1730.766722221062</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U8" t="n">
-        <v>1730.766722221062</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="V8" t="n">
-        <v>1730.766722221062</v>
+        <v>1695.912714533713</v>
       </c>
       <c r="W8" t="n">
-        <v>1730.766722221062</v>
+        <v>1312.152413668882</v>
       </c>
       <c r="X8" t="n">
-        <v>1730.766722221062</v>
+        <v>1312.152413668882</v>
       </c>
       <c r="Y8" t="n">
-        <v>1730.766722221062</v>
+        <v>1312.152413668882</v>
       </c>
     </row>
     <row r="9">
@@ -4859,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>720.5959275161366</v>
+        <v>720.5959275161365</v>
       </c>
       <c r="C9" t="n">
-        <v>586.6008562650824</v>
+        <v>586.6008562650821</v>
       </c>
       <c r="D9" t="n">
-        <v>469.7036984844747</v>
+        <v>469.7036984844746</v>
       </c>
       <c r="E9" t="n">
-        <v>349.2108824768027</v>
+        <v>349.2108824768026</v>
       </c>
       <c r="F9" t="n">
-        <v>240.2510026593072</v>
+        <v>240.2510026593071</v>
       </c>
       <c r="G9" t="n">
-        <v>133.260889973646</v>
+        <v>133.2608899736458</v>
       </c>
       <c r="H9" t="n">
-        <v>62.51367700936203</v>
+        <v>62.51367700936187</v>
       </c>
       <c r="I9" t="n">
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>158.3214934345126</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960205</v>
+        <v>158.3214934345126</v>
       </c>
       <c r="L9" t="n">
-        <v>537.7254774811266</v>
+        <v>158.3214934345126</v>
       </c>
       <c r="M9" t="n">
-        <v>1054.568412147452</v>
+        <v>158.3214934345126</v>
       </c>
       <c r="N9" t="n">
-        <v>1571.411346813777</v>
+        <v>675.1644281008379</v>
       </c>
       <c r="O9" t="n">
-        <v>2088.254281480102</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4919,16 +4919,16 @@
         <v>1623.571596919638</v>
       </c>
       <c r="V9" t="n">
-        <v>1409.860069912672</v>
+        <v>1409.860069912671</v>
       </c>
       <c r="W9" t="n">
-        <v>1196.626901649001</v>
+        <v>1196.626901649</v>
       </c>
       <c r="X9" t="n">
         <v>1020.300919787893</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.8989601517233</v>
+        <v>860.8989601517231</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>536.9842286343843</v>
+        <v>1131.098935930739</v>
       </c>
       <c r="C10" t="n">
-        <v>365.8908561961008</v>
+        <v>960.0055634924552</v>
       </c>
       <c r="D10" t="n">
-        <v>206.3962115190108</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E10" t="n">
-        <v>206.3962115190108</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F10" t="n">
-        <v>41.76508562960205</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G10" t="n">
-        <v>41.76508562960205</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H10" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I10" t="n">
         <v>41.76508562960205</v>
@@ -4986,28 +4986,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R10" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S10" t="n">
-        <v>1299.499495805762</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T10" t="n">
-        <v>1059.950756782464</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U10" t="n">
-        <v>1000.063789385936</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="V10" t="n">
-        <v>1000.063789385936</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="W10" t="n">
-        <v>1000.063789385936</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="X10" t="n">
-        <v>761.7199272456196</v>
+        <v>1543.534340936018</v>
       </c>
       <c r="Y10" t="n">
-        <v>536.9842286343843</v>
+        <v>1318.798642324783</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2102.237727455812</v>
+        <v>2549.191389976085</v>
       </c>
       <c r="C11" t="n">
-        <v>1692.113136769082</v>
+        <v>2139.066799289355</v>
       </c>
       <c r="D11" t="n">
-        <v>1287.649206862143</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="E11" t="n">
-        <v>873.3089913790395</v>
+        <v>1320.262653899312</v>
       </c>
       <c r="F11" t="n">
-        <v>452.2785793327271</v>
+        <v>899.2322418529996</v>
       </c>
       <c r="G11" t="n">
-        <v>179.5954603735497</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="H11" t="n">
         <v>179.5954603735497</v>
       </c>
       <c r="I11" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
-        <v>885.5886702674175</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L11" t="n">
-        <v>1598.180070079656</v>
+        <v>1598.180070079655</v>
       </c>
       <c r="M11" t="n">
-        <v>2374.49866107141</v>
+        <v>2374.498661071409</v>
       </c>
       <c r="N11" t="n">
-        <v>3127.679677710028</v>
+        <v>3127.679677710027</v>
       </c>
       <c r="O11" t="n">
         <v>3771.310534127132</v>
       </c>
       <c r="P11" t="n">
-        <v>4300.467232046284</v>
+        <v>4300.467232046283</v>
       </c>
       <c r="Q11" t="n">
-        <v>4621.628238841576</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R11" t="n">
-        <v>4662.184884531141</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>4526.903809325241</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="T11" t="n">
-        <v>4304.6973252721</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="U11" t="n">
-        <v>4047.63683353161</v>
+        <v>4439.978400477999</v>
       </c>
       <c r="V11" t="n">
-        <v>3697.799278868091</v>
+        <v>4090.140845814479</v>
       </c>
       <c r="W11" t="n">
-        <v>3314.038978003259</v>
+        <v>3706.380544949648</v>
       </c>
       <c r="X11" t="n">
-        <v>2913.395580172212</v>
+        <v>3305.7371471186</v>
       </c>
       <c r="Y11" t="n">
-        <v>2512.458907120302</v>
+        <v>2904.80047406669</v>
       </c>
     </row>
     <row r="12">
@@ -5108,7 +5108,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>291.7296147203279</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
         <v>184.7395020346666</v>
@@ -5117,22 +5117,22 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="K12" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="L12" t="n">
-        <v>93.24369769062281</v>
+        <v>754.331869609911</v>
       </c>
       <c r="M12" t="n">
-        <v>936.2207783851895</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="N12" t="n">
-        <v>1809.878870496807</v>
+        <v>1597.308950304478</v>
       </c>
       <c r="O12" t="n">
         <v>2139.732893541123</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C13" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D13" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E13" t="n">
-        <v>691.0787157447054</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F13" t="n">
-        <v>526.4475898552967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
         <v>107.3262470958333</v>
@@ -5223,28 +5223,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1560.728185473649</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1374.33641735356</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1134.787678330262</v>
+        <v>1392.076815447654</v>
       </c>
       <c r="U13" t="n">
-        <v>851.989530876386</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V13" t="n">
-        <v>851.989530876386</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W13" t="n">
-        <v>851.989530876386</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X13" t="n">
-        <v>851.989530876386</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y13" t="n">
-        <v>851.989530876386</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="14">
@@ -5254,19 +5254,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2102.237727455811</v>
+        <v>2503.174400507722</v>
       </c>
       <c r="C14" t="n">
-        <v>1692.113136769081</v>
+        <v>2093.049809820992</v>
       </c>
       <c r="D14" t="n">
-        <v>1287.649206862142</v>
+        <v>1688.585879914052</v>
       </c>
       <c r="E14" t="n">
-        <v>873.3089913790386</v>
+        <v>1274.245664430949</v>
       </c>
       <c r="F14" t="n">
-        <v>490.5039577458317</v>
+        <v>853.2152523846366</v>
       </c>
       <c r="G14" t="n">
         <v>490.5039577458317</v>
@@ -5293,7 +5293,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P14" t="n">
         <v>4300.467232046283</v>
@@ -5323,7 +5323,7 @@
         <v>2913.395580172211</v>
       </c>
       <c r="Y14" t="n">
-        <v>2512.458907120301</v>
+        <v>2913.395580172211</v>
       </c>
     </row>
     <row r="15">
@@ -5357,28 +5357,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J15" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K15" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L15" t="n">
-        <v>93.2436976906228</v>
+        <v>1402.950983437843</v>
       </c>
       <c r="M15" t="n">
-        <v>936.2207783851894</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="N15" t="n">
-        <v>1809.878870496807</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="O15" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="P15" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5412,7 +5412,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.2436976906228</v>
+        <v>264.3370701289063</v>
       </c>
       <c r="C16" t="n">
         <v>93.2436976906228</v>
@@ -5460,28 +5460,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1350.978107866783</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T16" t="n">
-        <v>1111.429368843485</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U16" t="n">
-        <v>828.6312213896092</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V16" t="n">
-        <v>554.7454763291312</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W16" t="n">
-        <v>275.6758118380055</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="X16" t="n">
-        <v>93.2436976906228</v>
+        <v>489.0727687401416</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.2436976906228</v>
+        <v>264.3370701289063</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2102.237727455811</v>
+        <v>2359.298219196301</v>
       </c>
       <c r="C17" t="n">
-        <v>1692.113136769081</v>
+        <v>1949.173628509571</v>
       </c>
       <c r="D17" t="n">
-        <v>1287.649206862142</v>
+        <v>1544.709698602632</v>
       </c>
       <c r="E17" t="n">
-        <v>873.3089913790386</v>
+        <v>1130.369483119528</v>
       </c>
       <c r="F17" t="n">
-        <v>588.3237444807176</v>
+        <v>709.339071073216</v>
       </c>
       <c r="G17" t="n">
-        <v>179.5954603735497</v>
+        <v>300.6107869660482</v>
       </c>
       <c r="H17" t="n">
         <v>179.5954603735497</v>
@@ -5515,7 +5515,7 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J17" t="n">
-        <v>347.4291691583771</v>
+        <v>347.429169158377</v>
       </c>
       <c r="K17" t="n">
         <v>885.5886702674165</v>
@@ -5530,7 +5530,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O17" t="n">
-        <v>3771.310534127132</v>
+        <v>3771.310534127131</v>
       </c>
       <c r="P17" t="n">
         <v>4300.467232046283</v>
@@ -5548,19 +5548,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V17" t="n">
-        <v>3697.79927886809</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W17" t="n">
-        <v>3314.038978003258</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X17" t="n">
-        <v>2913.395580172211</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y17" t="n">
-        <v>2512.458907120301</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3294.526530567174</v>
+        <v>772.0745395771571</v>
       </c>
       <c r="C18" t="n">
-        <v>3160.531459316119</v>
+        <v>638.0794683261029</v>
       </c>
       <c r="D18" t="n">
-        <v>3043.634301535512</v>
+        <v>521.1823105454953</v>
       </c>
       <c r="E18" t="n">
-        <v>2923.14148552784</v>
+        <v>400.6894945378233</v>
       </c>
       <c r="F18" t="n">
-        <v>2814.181605710345</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G18" t="n">
-        <v>2707.191493024683</v>
+        <v>184.7395020346666</v>
       </c>
       <c r="H18" t="n">
-        <v>2636.4442800604</v>
+        <v>113.9922890703826</v>
       </c>
       <c r="I18" t="n">
-        <v>2615.69568868064</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>2615.69568868064</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>2615.69568868064</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>2615.69568868064</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M18" t="n">
-        <v>3458.672769375206</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N18" t="n">
-        <v>4332.330861486824</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O18" t="n">
-        <v>4662.18488453114</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P18" t="n">
-        <v>4662.18488453114</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
-        <v>4662.18488453114</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
-        <v>4662.18488453114</v>
+        <v>2139.732893541123</v>
       </c>
       <c r="S18" t="n">
-        <v>4554.194874645448</v>
+        <v>2031.742883655432</v>
       </c>
       <c r="T18" t="n">
-        <v>4394.853010832457</v>
+        <v>1872.40101984244</v>
       </c>
       <c r="U18" t="n">
-        <v>4197.502199970675</v>
+        <v>1675.050208980659</v>
       </c>
       <c r="V18" t="n">
-        <v>3983.790672963709</v>
+        <v>1461.338681973692</v>
       </c>
       <c r="W18" t="n">
-        <v>3770.557504700037</v>
+        <v>1248.105513710021</v>
       </c>
       <c r="X18" t="n">
-        <v>3594.23152283893</v>
+        <v>1071.779531848914</v>
       </c>
       <c r="Y18" t="n">
-        <v>3434.82956320276</v>
+        <v>912.3775722127438</v>
       </c>
     </row>
     <row r="19">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1182.57754799176</v>
+        <v>745.5306744632587</v>
       </c>
       <c r="C19" t="n">
-        <v>1011.484175553476</v>
+        <v>745.5306744632587</v>
       </c>
       <c r="D19" t="n">
-        <v>851.989530876386</v>
+        <v>586.0360297861687</v>
       </c>
       <c r="E19" t="n">
-        <v>691.0787157447054</v>
+        <v>425.1252146544881</v>
       </c>
       <c r="F19" t="n">
-        <v>526.4475898552967</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G19" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H19" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T19" t="n">
-        <v>1461.647212482885</v>
+        <v>1437.035743959664</v>
       </c>
       <c r="U19" t="n">
-        <v>1461.647212482885</v>
+        <v>1437.035743959664</v>
       </c>
       <c r="V19" t="n">
-        <v>1461.647212482885</v>
+        <v>1437.035743959664</v>
       </c>
       <c r="W19" t="n">
-        <v>1182.57754799176</v>
+        <v>1157.966079468538</v>
       </c>
       <c r="X19" t="n">
-        <v>1182.57754799176</v>
+        <v>1157.966079468538</v>
       </c>
       <c r="Y19" t="n">
-        <v>1182.57754799176</v>
+        <v>933.2303808573031</v>
       </c>
     </row>
     <row r="20">
@@ -5728,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2102.237727455811</v>
+        <v>2359.298219196301</v>
       </c>
       <c r="C20" t="n">
-        <v>1692.113136769081</v>
+        <v>1949.173628509571</v>
       </c>
       <c r="D20" t="n">
-        <v>1287.649206862142</v>
+        <v>1544.709698602632</v>
       </c>
       <c r="E20" t="n">
-        <v>1009.35415652703</v>
+        <v>1130.369483119528</v>
       </c>
       <c r="F20" t="n">
-        <v>588.3237444807176</v>
+        <v>709.339071073216</v>
       </c>
       <c r="G20" t="n">
-        <v>179.5954603735497</v>
+        <v>300.6107869660482</v>
       </c>
       <c r="H20" t="n">
-        <v>179.5954603735497</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I20" t="n">
         <v>93.2436976906228</v>
@@ -5755,7 +5755,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674168</v>
+        <v>885.5886702674165</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
@@ -5785,19 +5785,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4047.636833531609</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="V20" t="n">
-        <v>3697.79927886809</v>
+        <v>3954.85977060858</v>
       </c>
       <c r="W20" t="n">
-        <v>3314.038978003258</v>
+        <v>3571.099469743748</v>
       </c>
       <c r="X20" t="n">
-        <v>2913.395580172211</v>
+        <v>3170.456071912701</v>
       </c>
       <c r="Y20" t="n">
-        <v>2512.458907120301</v>
+        <v>2769.519398860791</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>562.1177108836107</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M21" t="n">
-        <v>562.1177108836107</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N21" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>4105.773792315753</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C22" t="n">
-        <v>3934.680419877469</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D22" t="n">
-        <v>3775.185775200379</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E22" t="n">
-        <v>3614.274960068698</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F22" t="n">
-        <v>3449.64383417929</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G22" t="n">
-        <v>3282.393443104833</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
-        <v>3132.785987910289</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J22" t="n">
-        <v>3146.8685373155</v>
+        <v>107.3262470958333</v>
       </c>
       <c r="K22" t="n">
-        <v>3301.420865037738</v>
+        <v>261.8785748180713</v>
       </c>
       <c r="L22" t="n">
-        <v>3561.317965317798</v>
+        <v>521.7756750981318</v>
       </c>
       <c r="M22" t="n">
-        <v>3850.582021758291</v>
+        <v>811.0397315386251</v>
       </c>
       <c r="N22" t="n">
-        <v>4131.420804152542</v>
+        <v>1091.878513932875</v>
       </c>
       <c r="O22" t="n">
-        <v>4390.981414479016</v>
+        <v>1351.43912425935</v>
       </c>
       <c r="P22" t="n">
-        <v>4596.656854728629</v>
+        <v>1557.114564508962</v>
       </c>
       <c r="Q22" t="n">
-        <v>4662.18488453114</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="R22" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>4576.912166206539</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T22" t="n">
-        <v>4576.912166206539</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U22" t="n">
-        <v>4576.912166206539</v>
+        <v>1109.278667993779</v>
       </c>
       <c r="V22" t="n">
-        <v>4576.912166206539</v>
+        <v>835.3929229333004</v>
       </c>
       <c r="W22" t="n">
-        <v>4576.912166206539</v>
+        <v>556.3232584421747</v>
       </c>
       <c r="X22" t="n">
-        <v>4338.568304066222</v>
+        <v>317.9793963018581</v>
       </c>
       <c r="Y22" t="n">
-        <v>4293.473498709797</v>
+        <v>93.2436976906228</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2315.763990092806</v>
+        <v>2544.754147592629</v>
       </c>
       <c r="C23" t="n">
-        <v>1905.639399406076</v>
+        <v>2134.629556905899</v>
       </c>
       <c r="D23" t="n">
-        <v>1501.175469499137</v>
+        <v>1730.16562699896</v>
       </c>
       <c r="E23" t="n">
-        <v>1086.835254016034</v>
+        <v>1315.825411515857</v>
       </c>
       <c r="F23" t="n">
-        <v>665.8048419697211</v>
+        <v>894.7949994695443</v>
       </c>
       <c r="G23" t="n">
-        <v>257.2495415964476</v>
+        <v>486.2396990962708</v>
       </c>
       <c r="H23" t="n">
         <v>177.1027713887331</v>
       </c>
       <c r="I23" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J23" t="n">
         <v>365.9950463732503</v>
       </c>
       <c r="K23" t="n">
-        <v>925.7208439477954</v>
+        <v>925.7208439477949</v>
       </c>
       <c r="L23" t="n">
         <v>1665.067141547876</v>
@@ -6004,37 +6004,37 @@
         <v>3254.588416372258</v>
       </c>
       <c r="O23" t="n">
-        <v>3926.78508420296</v>
+        <v>3926.785084202961</v>
       </c>
       <c r="P23" t="n">
-        <v>4480.322041270213</v>
+        <v>4480.322041270214</v>
       </c>
       <c r="Q23" t="n">
-        <v>4819.791607344924</v>
+        <v>4819.791607344925</v>
       </c>
       <c r="R23" t="n">
-        <v>4870.998205338185</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="S23" t="n">
-        <v>4739.658996968401</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="T23" t="n">
-        <v>4518.209749210382</v>
+        <v>4649.548957580168</v>
       </c>
       <c r="U23" t="n">
-        <v>4261.163096168604</v>
+        <v>4392.50230453839</v>
       </c>
       <c r="V23" t="n">
-        <v>3911.325541505085</v>
+        <v>4140.315699004907</v>
       </c>
       <c r="W23" t="n">
-        <v>3527.565240640253</v>
+        <v>3756.555398140076</v>
       </c>
       <c r="X23" t="n">
-        <v>3126.921842809206</v>
+        <v>3355.912000309029</v>
       </c>
       <c r="Y23" t="n">
-        <v>2725.985169757296</v>
+        <v>2954.975327257119</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I24" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J24" t="n">
-        <v>97.41996410676371</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K24" t="n">
-        <v>97.41996410676371</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L24" t="n">
-        <v>97.41996410676371</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M24" t="n">
-        <v>514.8469186904417</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N24" t="n">
-        <v>1412.097852308888</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O24" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P24" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q24" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R24" t="n">
         <v>2137.637783597812</v>
@@ -6123,19 +6123,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1091.129402715462</v>
+        <v>388.9020926240204</v>
       </c>
       <c r="C25" t="n">
-        <v>920.0360302771785</v>
+        <v>360.3500994508607</v>
       </c>
       <c r="D25" t="n">
-        <v>853.0648369985595</v>
+        <v>360.3500994508607</v>
       </c>
       <c r="E25" t="n">
-        <v>692.1540218668789</v>
+        <v>360.3500994508607</v>
       </c>
       <c r="F25" t="n">
-        <v>527.5228959774702</v>
+        <v>360.3500994508607</v>
       </c>
       <c r="G25" t="n">
         <v>360.3500994508607</v>
@@ -6144,7 +6144,7 @@
         <v>211.4325303271773</v>
       </c>
       <c r="I25" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J25" t="n">
         <v>116.8792779475706</v>
@@ -6159,13 +6159,13 @@
         <v>852.6563092888648</v>
       </c>
       <c r="N25" t="n">
-        <v>1145.132879486174</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O25" t="n">
         <v>1415.442870479314</v>
       </c>
       <c r="P25" t="n">
-        <v>1630.316262902151</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q25" t="n">
         <v>1702.21247802243</v>
@@ -6174,25 +6174,25 @@
         <v>1702.21247802243</v>
       </c>
       <c r="S25" t="n">
-        <v>1517.172971249823</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T25" t="n">
-        <v>1517.172971249823</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="U25" t="n">
-        <v>1517.172971249823</v>
+        <v>1180.201364315941</v>
       </c>
       <c r="V25" t="n">
-        <v>1517.172971249823</v>
+        <v>906.3156192554627</v>
       </c>
       <c r="W25" t="n">
-        <v>1517.172971249823</v>
+        <v>627.2459547643371</v>
       </c>
       <c r="X25" t="n">
-        <v>1278.829109109506</v>
+        <v>388.9020926240204</v>
       </c>
       <c r="Y25" t="n">
-        <v>1278.829109109506</v>
+        <v>388.9020926240204</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2465.07134031066</v>
+        <v>2447.103198462591</v>
       </c>
       <c r="C26" t="n">
-        <v>2054.94674962393</v>
+        <v>2036.978607775861</v>
       </c>
       <c r="D26" t="n">
-        <v>1650.482819716991</v>
+        <v>1632.514677868921</v>
       </c>
       <c r="E26" t="n">
-        <v>1236.142604233887</v>
+        <v>1218.174462385818</v>
       </c>
       <c r="F26" t="n">
-        <v>815.1121921875749</v>
+        <v>797.1440503395056</v>
       </c>
       <c r="G26" t="n">
         <v>406.5568918143014</v>
@@ -6253,25 +6253,25 @@
         <v>4870.998205338185</v>
       </c>
       <c r="S26" t="n">
-        <v>4739.658996968401</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="T26" t="n">
-        <v>4518.209749210382</v>
+        <v>4649.548957580167</v>
       </c>
       <c r="U26" t="n">
-        <v>4261.163096168604</v>
+        <v>4392.502304538389</v>
       </c>
       <c r="V26" t="n">
-        <v>4060.632891722939</v>
+        <v>4042.664749874869</v>
       </c>
       <c r="W26" t="n">
-        <v>3676.872590858107</v>
+        <v>3658.904449010038</v>
       </c>
       <c r="X26" t="n">
-        <v>3276.22919302706</v>
+        <v>3258.26105117899</v>
       </c>
       <c r="Y26" t="n">
-        <v>2875.29251997515</v>
+        <v>2857.32437812708</v>
       </c>
     </row>
     <row r="27">
@@ -6305,28 +6305,28 @@
         <v>97.41996410676371</v>
       </c>
       <c r="J27" t="n">
-        <v>97.41996410676371</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K27" t="n">
-        <v>97.41996410676371</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L27" t="n">
-        <v>778.2043133443127</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M27" t="n">
-        <v>778.2043133443127</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N27" t="n">
-        <v>1675.455246962759</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O27" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P27" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q27" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R27" t="n">
         <v>2137.637783597812</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1016.480057587323</v>
+        <v>402.5102561531017</v>
       </c>
       <c r="C28" t="n">
-        <v>845.38668514904</v>
+        <v>231.4168837148183</v>
       </c>
       <c r="D28" t="n">
-        <v>685.8920404719499</v>
+        <v>231.4168837148183</v>
       </c>
       <c r="E28" t="n">
-        <v>524.9812253402695</v>
+        <v>231.4168837148183</v>
       </c>
       <c r="F28" t="n">
-        <v>360.3500994508607</v>
+        <v>231.4168837148183</v>
       </c>
       <c r="G28" t="n">
-        <v>360.3500994508607</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="H28" t="n">
-        <v>211.4325303271773</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I28" t="n">
         <v>97.41996410676371</v>
@@ -6396,13 +6396,13 @@
         <v>852.6563092888648</v>
       </c>
       <c r="N28" t="n">
-        <v>1145.132879486174</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O28" t="n">
         <v>1415.442870479314</v>
       </c>
       <c r="P28" t="n">
-        <v>1630.316262902151</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q28" t="n">
         <v>1702.21247802243</v>
@@ -6411,25 +6411,25 @@
         <v>1702.21247802243</v>
       </c>
       <c r="S28" t="n">
-        <v>1533.893584218766</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T28" t="n">
-        <v>1533.893584218766</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="U28" t="n">
-        <v>1533.893584218766</v>
+        <v>1180.201364315941</v>
       </c>
       <c r="V28" t="n">
-        <v>1533.893584218766</v>
+        <v>906.3156192554627</v>
       </c>
       <c r="W28" t="n">
-        <v>1254.82391972764</v>
+        <v>627.2459547643371</v>
       </c>
       <c r="X28" t="n">
-        <v>1016.480057587323</v>
+        <v>627.2459547643371</v>
       </c>
       <c r="Y28" t="n">
-        <v>1016.480057587323</v>
+        <v>402.5102561531017</v>
       </c>
     </row>
     <row r="29">
@@ -6439,34 +6439,34 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2544.754147592629</v>
+        <v>2465.07134031066</v>
       </c>
       <c r="C29" t="n">
-        <v>2134.629556905899</v>
+        <v>2054.94674962393</v>
       </c>
       <c r="D29" t="n">
-        <v>1730.16562699896</v>
+        <v>1650.482819716991</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.825411515857</v>
+        <v>1236.142604233888</v>
       </c>
       <c r="F29" t="n">
-        <v>894.7949994695443</v>
+        <v>815.112192187575</v>
       </c>
       <c r="G29" t="n">
-        <v>486.2396990962708</v>
+        <v>406.5568918143015</v>
       </c>
       <c r="H29" t="n">
-        <v>177.1027713887331</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I29" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J29" t="n">
         <v>365.9950463732503</v>
       </c>
       <c r="K29" t="n">
-        <v>925.7208439477954</v>
+        <v>925.7208439477949</v>
       </c>
       <c r="L29" t="n">
         <v>1665.067141547876</v>
@@ -6484,31 +6484,31 @@
         <v>4480.322041270214</v>
       </c>
       <c r="Q29" t="n">
-        <v>4819.791607344924</v>
+        <v>4819.791607344925</v>
       </c>
       <c r="R29" t="n">
-        <v>4870.998205338185</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="S29" t="n">
-        <v>4739.658996968401</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="T29" t="n">
-        <v>4518.209749210382</v>
+        <v>4667.517099428236</v>
       </c>
       <c r="U29" t="n">
-        <v>4261.163096168604</v>
+        <v>4410.470446386458</v>
       </c>
       <c r="V29" t="n">
-        <v>3911.325541505085</v>
+        <v>4060.632891722939</v>
       </c>
       <c r="W29" t="n">
-        <v>3527.565240640253</v>
+        <v>3676.872590858107</v>
       </c>
       <c r="X29" t="n">
-        <v>3126.921842809206</v>
+        <v>3276.22919302706</v>
       </c>
       <c r="Y29" t="n">
-        <v>2725.985169757296</v>
+        <v>2875.29251997515</v>
       </c>
     </row>
     <row r="30">
@@ -6539,31 +6539,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I30" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J30" t="n">
-        <v>97.41996410676371</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K30" t="n">
-        <v>567.8743197625565</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L30" t="n">
-        <v>1248.658669000105</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M30" t="n">
-        <v>1248.658669000105</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N30" t="n">
-        <v>1248.658669000105</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O30" t="n">
-        <v>1974.19860028903</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P30" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q30" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R30" t="n">
         <v>2137.637783597812</v>
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1183.652854113933</v>
+        <v>739.0522707781458</v>
       </c>
       <c r="C31" t="n">
-        <v>1012.55948167565</v>
+        <v>739.0522707781458</v>
       </c>
       <c r="D31" t="n">
-        <v>853.0648369985595</v>
+        <v>739.0522707781458</v>
       </c>
       <c r="E31" t="n">
-        <v>692.1540218668789</v>
+        <v>578.1414556464653</v>
       </c>
       <c r="F31" t="n">
-        <v>527.5228959774702</v>
+        <v>413.5103297570565</v>
       </c>
       <c r="G31" t="n">
-        <v>360.3500994508607</v>
+        <v>246.3375332304472</v>
       </c>
       <c r="H31" t="n">
-        <v>211.4325303271773</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I31" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J31" t="n">
         <v>116.8792779475706</v>
@@ -6633,40 +6633,40 @@
         <v>852.6563092888648</v>
       </c>
       <c r="N31" t="n">
-        <v>1145.132879486174</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O31" t="n">
         <v>1415.442870479314</v>
       </c>
       <c r="P31" t="n">
-        <v>1630.316262902151</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q31" t="n">
         <v>1702.21247802243</v>
       </c>
       <c r="R31" t="n">
-        <v>1620.428692731033</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S31" t="n">
-        <v>1596.088259119213</v>
+        <v>1517.172971249823</v>
       </c>
       <c r="T31" t="n">
-        <v>1596.088259119213</v>
+        <v>1277.955772567327</v>
       </c>
       <c r="U31" t="n">
-        <v>1596.088259119213</v>
+        <v>1277.955772567327</v>
       </c>
       <c r="V31" t="n">
-        <v>1596.088259119213</v>
+        <v>1004.070027506849</v>
       </c>
       <c r="W31" t="n">
-        <v>1596.088259119213</v>
+        <v>739.0522707781458</v>
       </c>
       <c r="X31" t="n">
-        <v>1596.088259119213</v>
+        <v>739.0522707781458</v>
       </c>
       <c r="Y31" t="n">
-        <v>1371.352560507977</v>
+        <v>739.0522707781458</v>
       </c>
     </row>
     <row r="32">
@@ -6697,13 +6697,13 @@
         <v>177.1027713887331</v>
       </c>
       <c r="I32" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J32" t="n">
-        <v>365.9950463732503</v>
+        <v>365.99504637325</v>
       </c>
       <c r="K32" t="n">
-        <v>925.7208439477954</v>
+        <v>925.7208439477952</v>
       </c>
       <c r="L32" t="n">
         <v>1665.067141547876</v>
@@ -6712,28 +6712,28 @@
         <v>2471.155711445509</v>
       </c>
       <c r="N32" t="n">
-        <v>3254.588416372259</v>
+        <v>3254.588416372258</v>
       </c>
       <c r="O32" t="n">
         <v>3926.785084202961</v>
       </c>
       <c r="P32" t="n">
-        <v>4480.322041270214</v>
+        <v>4480.322041270213</v>
       </c>
       <c r="Q32" t="n">
-        <v>4819.791607344925</v>
+        <v>4819.791607344924</v>
       </c>
       <c r="R32" t="n">
-        <v>4870.998205338186</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="S32" t="n">
-        <v>4739.658996968402</v>
+        <v>4739.658996968401</v>
       </c>
       <c r="T32" t="n">
-        <v>4518.209749210383</v>
+        <v>4518.209749210382</v>
       </c>
       <c r="U32" t="n">
-        <v>4261.163096168605</v>
+        <v>4490.153253668426</v>
       </c>
       <c r="V32" t="n">
         <v>4140.315699004907</v>
@@ -6776,31 +6776,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I33" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J33" t="n">
-        <v>97.41996410676373</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K33" t="n">
-        <v>97.41996410676373</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L33" t="n">
-        <v>97.41996410676373</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M33" t="n">
-        <v>963.3815547230741</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N33" t="n">
-        <v>963.3815547230741</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O33" t="n">
-        <v>1688.921486011998</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P33" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q33" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R33" t="n">
         <v>2137.637783597812</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>262.0510899961724</v>
+        <v>540.9904667552975</v>
       </c>
       <c r="C34" t="n">
-        <v>262.0510899961724</v>
+        <v>540.9904667552975</v>
       </c>
       <c r="D34" t="n">
-        <v>262.0510899961724</v>
+        <v>540.9904667552975</v>
       </c>
       <c r="E34" t="n">
-        <v>262.0510899961724</v>
+        <v>380.0796516236169</v>
       </c>
       <c r="F34" t="n">
-        <v>97.41996410676373</v>
+        <v>380.0796516236169</v>
       </c>
       <c r="G34" t="n">
-        <v>97.41996410676373</v>
+        <v>360.3500994508607</v>
       </c>
       <c r="H34" t="n">
-        <v>97.41996410676373</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="I34" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J34" t="n">
         <v>116.8792779475706</v>
@@ -6870,40 +6870,40 @@
         <v>852.6563092888648</v>
       </c>
       <c r="N34" t="n">
-        <v>1145.132879486174</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O34" t="n">
         <v>1415.442870479314</v>
       </c>
       <c r="P34" t="n">
-        <v>1630.316262902151</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q34" t="n">
         <v>1702.21247802243</v>
       </c>
       <c r="R34" t="n">
-        <v>1620.428692731033</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S34" t="n">
-        <v>1620.428692731033</v>
+        <v>1517.172971249823</v>
       </c>
       <c r="T34" t="n">
-        <v>1381.211494048537</v>
+        <v>1277.955772567327</v>
       </c>
       <c r="U34" t="n">
-        <v>1098.417579024544</v>
+        <v>1277.955772567327</v>
       </c>
       <c r="V34" t="n">
-        <v>824.5318339640655</v>
+        <v>1004.070027506849</v>
       </c>
       <c r="W34" t="n">
-        <v>545.4621694729399</v>
+        <v>1004.070027506849</v>
       </c>
       <c r="X34" t="n">
-        <v>307.1183073326233</v>
+        <v>765.7261653665328</v>
       </c>
       <c r="Y34" t="n">
-        <v>262.0510899961724</v>
+        <v>540.9904667552975</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2315.763990092806</v>
+        <v>2544.754147592629</v>
       </c>
       <c r="C35" t="n">
         <v>2134.629556905899</v>
@@ -6934,13 +6934,13 @@
         <v>177.1027713887331</v>
       </c>
       <c r="I35" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J35" t="n">
-        <v>365.99504637325</v>
+        <v>365.9950463732503</v>
       </c>
       <c r="K35" t="n">
-        <v>925.7208439477952</v>
+        <v>925.7208439477949</v>
       </c>
       <c r="L35" t="n">
         <v>1665.067141547876</v>
@@ -6949,40 +6949,40 @@
         <v>2471.155711445509</v>
       </c>
       <c r="N35" t="n">
-        <v>3254.588416372259</v>
+        <v>3254.588416372258</v>
       </c>
       <c r="O35" t="n">
         <v>3926.785084202961</v>
       </c>
       <c r="P35" t="n">
-        <v>4480.322041270213</v>
+        <v>4480.322041270214</v>
       </c>
       <c r="Q35" t="n">
-        <v>4819.791607344924</v>
+        <v>4819.791607344925</v>
       </c>
       <c r="R35" t="n">
-        <v>4870.998205338185</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="S35" t="n">
-        <v>4739.658996968401</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="T35" t="n">
-        <v>4518.209749210382</v>
+        <v>4747.199906710204</v>
       </c>
       <c r="U35" t="n">
-        <v>4261.163096168604</v>
+        <v>4490.153253668426</v>
       </c>
       <c r="V35" t="n">
-        <v>3911.325541505085</v>
+        <v>4140.315699004907</v>
       </c>
       <c r="W35" t="n">
-        <v>3527.565240640253</v>
+        <v>3756.555398140076</v>
       </c>
       <c r="X35" t="n">
-        <v>3126.921842809206</v>
+        <v>3355.912000309029</v>
       </c>
       <c r="Y35" t="n">
-        <v>2725.985169757296</v>
+        <v>2954.975327257119</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3505.438158345675</v>
+        <v>772.0777366053014</v>
       </c>
       <c r="C36" t="n">
-        <v>3371.443087094621</v>
+        <v>638.0826653542472</v>
       </c>
       <c r="D36" t="n">
-        <v>3254.545929314013</v>
+        <v>521.1855075736396</v>
       </c>
       <c r="E36" t="n">
-        <v>3134.053113306341</v>
+        <v>400.6926915659676</v>
       </c>
       <c r="F36" t="n">
-        <v>3025.093233488846</v>
+        <v>291.7328117484722</v>
       </c>
       <c r="G36" t="n">
-        <v>2918.195675260428</v>
+        <v>184.8352535200544</v>
       </c>
       <c r="H36" t="n">
-        <v>2848.342343501628</v>
+        <v>114.9819217612538</v>
       </c>
       <c r="I36" t="n">
-        <v>2830.780385847137</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J36" t="n">
-        <v>3032.163597022793</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K36" t="n">
-        <v>3032.163597022793</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L36" t="n">
-        <v>3712.947946260342</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M36" t="n">
-        <v>3784.034422542318</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N36" t="n">
-        <v>3784.034422542318</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O36" t="n">
-        <v>4509.574353831242</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P36" t="n">
-        <v>4509.574353831242</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q36" t="n">
-        <v>4870.998205338185</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R36" t="n">
-        <v>4870.998205338185</v>
+        <v>2137.637783597812</v>
       </c>
       <c r="S36" t="n">
-        <v>4764.727353901732</v>
+        <v>2031.366932161359</v>
       </c>
       <c r="T36" t="n">
-        <v>4605.758549501928</v>
+        <v>1872.398127761555</v>
       </c>
       <c r="U36" t="n">
-        <v>4408.413827749177</v>
+        <v>1675.053406008803</v>
       </c>
       <c r="V36" t="n">
-        <v>4194.70230074221</v>
+        <v>1461.341879001837</v>
       </c>
       <c r="W36" t="n">
-        <v>3981.469132478539</v>
+        <v>1248.108710738165</v>
       </c>
       <c r="X36" t="n">
-        <v>3805.143150617432</v>
+        <v>1071.782728877058</v>
       </c>
       <c r="Y36" t="n">
-        <v>3645.741190981262</v>
+        <v>912.3807692408881</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>588.9187963538177</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="C37" t="n">
-        <v>417.8254239155342</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="D37" t="n">
-        <v>258.3307792384442</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="E37" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="F37" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="G37" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="H37" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I37" t="n">
-        <v>97.41996410676371</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J37" t="n">
         <v>116.8792779475706</v>
@@ -7107,13 +7107,13 @@
         <v>852.6563092888648</v>
       </c>
       <c r="N37" t="n">
-        <v>1145.132879486174</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O37" t="n">
         <v>1415.442870479314</v>
       </c>
       <c r="P37" t="n">
-        <v>1630.316262902151</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q37" t="n">
         <v>1702.21247802243</v>
@@ -7122,25 +7122,25 @@
         <v>1702.21247802243</v>
       </c>
       <c r="S37" t="n">
-        <v>1517.172971249823</v>
+        <v>1635.466048116409</v>
       </c>
       <c r="T37" t="n">
-        <v>1517.172971249823</v>
+        <v>1396.248849433913</v>
       </c>
       <c r="U37" t="n">
-        <v>1517.172971249823</v>
+        <v>1113.454934409919</v>
       </c>
       <c r="V37" t="n">
-        <v>1517.172971249823</v>
+        <v>839.5691893494413</v>
       </c>
       <c r="W37" t="n">
-        <v>1239.698063499414</v>
+        <v>560.4995248583157</v>
       </c>
       <c r="X37" t="n">
-        <v>1001.354201359097</v>
+        <v>322.155662717999</v>
       </c>
       <c r="Y37" t="n">
-        <v>776.6185027478621</v>
+        <v>97.41996410676373</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2315.763990092807</v>
+        <v>2465.07134031066</v>
       </c>
       <c r="C38" t="n">
-        <v>1905.639399406077</v>
+        <v>2054.94674962393</v>
       </c>
       <c r="D38" t="n">
-        <v>1501.175469499138</v>
+        <v>1650.482819716991</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.825411515857</v>
+        <v>1236.142604233888</v>
       </c>
       <c r="F38" t="n">
-        <v>894.7949994695443</v>
+        <v>815.112192187575</v>
       </c>
       <c r="G38" t="n">
-        <v>486.2396990962708</v>
+        <v>406.5568918143015</v>
       </c>
       <c r="H38" t="n">
-        <v>177.1027713887331</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I38" t="n">
         <v>97.41996410676373</v>
@@ -7177,7 +7177,7 @@
         <v>365.9950463732503</v>
       </c>
       <c r="K38" t="n">
-        <v>925.7208439477954</v>
+        <v>925.7208439477949</v>
       </c>
       <c r="L38" t="n">
         <v>1665.067141547876</v>
@@ -7186,7 +7186,7 @@
         <v>2471.155711445509</v>
       </c>
       <c r="N38" t="n">
-        <v>3254.588416372259</v>
+        <v>3254.588416372258</v>
       </c>
       <c r="O38" t="n">
         <v>3926.785084202961</v>
@@ -7201,25 +7201,25 @@
         <v>4870.998205338186</v>
       </c>
       <c r="S38" t="n">
-        <v>4739.658996968402</v>
+        <v>4870.998205338186</v>
       </c>
       <c r="T38" t="n">
-        <v>4518.209749210383</v>
+        <v>4649.548957580168</v>
       </c>
       <c r="U38" t="n">
-        <v>4261.163096168605</v>
+        <v>4410.470446386458</v>
       </c>
       <c r="V38" t="n">
-        <v>3911.325541505086</v>
+        <v>4060.632891722939</v>
       </c>
       <c r="W38" t="n">
-        <v>3527.565240640254</v>
+        <v>3676.872590858107</v>
       </c>
       <c r="X38" t="n">
-        <v>3126.921842809207</v>
+        <v>3276.22919302706</v>
       </c>
       <c r="Y38" t="n">
-        <v>2725.985169757297</v>
+        <v>2875.29251997515</v>
       </c>
     </row>
     <row r="39">
@@ -7253,28 +7253,28 @@
         <v>97.41996410676373</v>
       </c>
       <c r="J39" t="n">
-        <v>97.41996410676373</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K39" t="n">
-        <v>97.41996410676373</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L39" t="n">
-        <v>97.41996410676373</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M39" t="n">
-        <v>963.3815547230741</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N39" t="n">
-        <v>1860.63248834152</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O39" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P39" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q39" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R39" t="n">
         <v>2137.637783597812</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3304.472691404854</v>
+        <v>122.078800560017</v>
       </c>
       <c r="C40" t="n">
-        <v>3304.472691404854</v>
+        <v>122.078800560017</v>
       </c>
       <c r="D40" t="n">
-        <v>3304.472691404854</v>
+        <v>122.078800560017</v>
       </c>
       <c r="E40" t="n">
-        <v>3304.472691404854</v>
+        <v>122.078800560017</v>
       </c>
       <c r="F40" t="n">
-        <v>3304.472691404854</v>
+        <v>122.078800560017</v>
       </c>
       <c r="G40" t="n">
-        <v>3304.472691404854</v>
+        <v>122.078800560017</v>
       </c>
       <c r="H40" t="n">
-        <v>3266.20569142252</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="I40" t="n">
-        <v>3266.20569142252</v>
+        <v>97.41996410676373</v>
       </c>
       <c r="J40" t="n">
-        <v>3285.665005263327</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K40" t="n">
-        <v>3449.053008630019</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L40" t="n">
-        <v>3720.256731718328</v>
+        <v>551.4710044025713</v>
       </c>
       <c r="M40" t="n">
-        <v>4021.442036604621</v>
+        <v>852.6563092888648</v>
       </c>
       <c r="N40" t="n">
-        <v>4313.918606801931</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O40" t="n">
-        <v>4584.22859779507</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P40" t="n">
-        <v>4799.101990217908</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q40" t="n">
-        <v>4870.998205338186</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="R40" t="n">
-        <v>4789.214420046789</v>
+        <v>1620.428692731033</v>
       </c>
       <c r="S40" t="n">
-        <v>4604.174913274182</v>
+        <v>1435.389185958427</v>
       </c>
       <c r="T40" t="n">
-        <v>4364.957714591686</v>
+        <v>1196.171987275931</v>
       </c>
       <c r="U40" t="n">
-        <v>4082.163799567693</v>
+        <v>913.3780722519373</v>
       </c>
       <c r="V40" t="n">
-        <v>3808.278054507215</v>
+        <v>639.4923271914593</v>
       </c>
       <c r="W40" t="n">
-        <v>3529.20839001609</v>
+        <v>360.4226627003336</v>
       </c>
       <c r="X40" t="n">
-        <v>3529.20839001609</v>
+        <v>122.078800560017</v>
       </c>
       <c r="Y40" t="n">
-        <v>3304.472691404854</v>
+        <v>122.078800560017</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2544.754147592629</v>
+        <v>2465.07134031066</v>
       </c>
       <c r="C41" t="n">
-        <v>2134.629556905899</v>
+        <v>2054.94674962393</v>
       </c>
       <c r="D41" t="n">
-        <v>1730.16562699896</v>
+        <v>1650.482819716991</v>
       </c>
       <c r="E41" t="n">
-        <v>1315.825411515857</v>
+        <v>1236.142604233887</v>
       </c>
       <c r="F41" t="n">
-        <v>894.7949994695443</v>
+        <v>815.1121921875749</v>
       </c>
       <c r="G41" t="n">
-        <v>486.2396990962708</v>
+        <v>406.5568918143014</v>
       </c>
       <c r="H41" t="n">
-        <v>177.1027713887331</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I41" t="n">
         <v>97.41996410676371</v>
       </c>
       <c r="J41" t="n">
-        <v>365.9950463732501</v>
+        <v>365.99504637325</v>
       </c>
       <c r="K41" t="n">
-        <v>925.7208439477952</v>
+        <v>925.7208439477953</v>
       </c>
       <c r="L41" t="n">
         <v>1665.067141547876</v>
@@ -7426,7 +7426,7 @@
         <v>3254.588416372258</v>
       </c>
       <c r="O41" t="n">
-        <v>3926.785084202961</v>
+        <v>3926.78508420296</v>
       </c>
       <c r="P41" t="n">
         <v>4480.322041270214</v>
@@ -7438,25 +7438,25 @@
         <v>4870.998205338185</v>
       </c>
       <c r="S41" t="n">
-        <v>4739.658996968401</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="T41" t="n">
-        <v>4518.209749210382</v>
+        <v>4667.517099428236</v>
       </c>
       <c r="U41" t="n">
-        <v>4261.163096168604</v>
+        <v>4410.470446386458</v>
       </c>
       <c r="V41" t="n">
-        <v>3911.325541505085</v>
+        <v>4060.632891722939</v>
       </c>
       <c r="W41" t="n">
-        <v>3527.565240640253</v>
+        <v>3676.872590858107</v>
       </c>
       <c r="X41" t="n">
-        <v>3355.912000309029</v>
+        <v>3276.22919302706</v>
       </c>
       <c r="Y41" t="n">
-        <v>2954.975327257119</v>
+        <v>2875.29251997515</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>97.41996410676371</v>
       </c>
       <c r="J42" t="n">
-        <v>97.41996410676371</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K42" t="n">
-        <v>97.41996410676371</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L42" t="n">
-        <v>97.41996410676371</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M42" t="n">
-        <v>514.8469186904415</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N42" t="n">
-        <v>1412.097852308888</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O42" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P42" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q42" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R42" t="n">
         <v>2137.637783597812</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4352.438581429687</v>
+        <v>488.6962948195354</v>
       </c>
       <c r="C43" t="n">
-        <v>4181.345208991404</v>
+        <v>317.6029223812519</v>
       </c>
       <c r="D43" t="n">
-        <v>4021.850564314315</v>
+        <v>158.1082777041619</v>
       </c>
       <c r="E43" t="n">
-        <v>3860.939749182634</v>
+        <v>158.1082777041619</v>
       </c>
       <c r="F43" t="n">
-        <v>3696.308623293226</v>
+        <v>158.1082777041619</v>
       </c>
       <c r="G43" t="n">
-        <v>3529.135826766616</v>
+        <v>158.1082777041619</v>
       </c>
       <c r="H43" t="n">
-        <v>3380.218257642933</v>
+        <v>158.1082777041619</v>
       </c>
       <c r="I43" t="n">
-        <v>3266.205691422519</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J43" t="n">
-        <v>3285.665005263326</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K43" t="n">
-        <v>3449.053008630018</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L43" t="n">
-        <v>3720.256731718327</v>
+        <v>551.4710044025713</v>
       </c>
       <c r="M43" t="n">
-        <v>4021.44203660462</v>
+        <v>852.6563092888648</v>
       </c>
       <c r="N43" t="n">
-        <v>4313.91860680193</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O43" t="n">
-        <v>4584.228597795069</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P43" t="n">
-        <v>4799.101990217907</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q43" t="n">
-        <v>4870.998205338185</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="R43" t="n">
-        <v>4870.998205338185</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S43" t="n">
-        <v>4870.998205338185</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T43" t="n">
-        <v>4870.998205338185</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="U43" t="n">
-        <v>4870.998205338185</v>
+        <v>1180.201364315941</v>
       </c>
       <c r="V43" t="n">
-        <v>4870.998205338185</v>
+        <v>1180.201364315941</v>
       </c>
       <c r="W43" t="n">
-        <v>4870.998205338185</v>
+        <v>901.1316998248151</v>
       </c>
       <c r="X43" t="n">
-        <v>4764.873986434967</v>
+        <v>901.1316998248151</v>
       </c>
       <c r="Y43" t="n">
-        <v>4540.138287823732</v>
+        <v>676.3960012135798</v>
       </c>
     </row>
     <row r="44">
@@ -7624,16 +7624,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2315.763990092806</v>
+        <v>2544.754147592629</v>
       </c>
       <c r="C44" t="n">
-        <v>1905.639399406076</v>
+        <v>2134.629556905899</v>
       </c>
       <c r="D44" t="n">
-        <v>1501.175469499137</v>
+        <v>1730.16562699896</v>
       </c>
       <c r="E44" t="n">
-        <v>1086.835254016034</v>
+        <v>1315.825411515857</v>
       </c>
       <c r="F44" t="n">
         <v>894.7949994695443</v>
@@ -7648,10 +7648,10 @@
         <v>97.41996410676371</v>
       </c>
       <c r="J44" t="n">
-        <v>365.99504637325</v>
+        <v>365.9950463732501</v>
       </c>
       <c r="K44" t="n">
-        <v>925.7208439477953</v>
+        <v>925.7208439477952</v>
       </c>
       <c r="L44" t="n">
         <v>1665.067141547876</v>
@@ -7663,37 +7663,37 @@
         <v>3254.588416372258</v>
       </c>
       <c r="O44" t="n">
-        <v>3926.78508420296</v>
+        <v>3926.785084202961</v>
       </c>
       <c r="P44" t="n">
         <v>4480.322041270214</v>
       </c>
       <c r="Q44" t="n">
-        <v>4819.791607344924</v>
+        <v>4819.791607344925</v>
       </c>
       <c r="R44" t="n">
         <v>4870.998205338185</v>
       </c>
       <c r="S44" t="n">
-        <v>4739.658996968401</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="T44" t="n">
-        <v>4518.209749210382</v>
+        <v>4747.199906710204</v>
       </c>
       <c r="U44" t="n">
-        <v>4261.163096168604</v>
+        <v>4490.153253668426</v>
       </c>
       <c r="V44" t="n">
-        <v>3911.325541505085</v>
+        <v>4140.315699004907</v>
       </c>
       <c r="W44" t="n">
-        <v>3527.565240640253</v>
+        <v>3756.555398140076</v>
       </c>
       <c r="X44" t="n">
-        <v>3126.921842809206</v>
+        <v>3355.912000309029</v>
       </c>
       <c r="Y44" t="n">
-        <v>2725.985169757296</v>
+        <v>2954.975327257119</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>97.41996410676371</v>
       </c>
       <c r="J45" t="n">
-        <v>97.41996410676371</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K45" t="n">
-        <v>97.41996410676371</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L45" t="n">
-        <v>97.41996410676371</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M45" t="n">
-        <v>963.3815547230743</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N45" t="n">
-        <v>1860.632488341521</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O45" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P45" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q45" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R45" t="n">
         <v>2137.637783597812</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3266.205691422519</v>
+        <v>696.4691160253565</v>
       </c>
       <c r="C46" t="n">
-        <v>3266.205691422519</v>
+        <v>696.4691160253565</v>
       </c>
       <c r="D46" t="n">
-        <v>3266.205691422519</v>
+        <v>536.9744713482664</v>
       </c>
       <c r="E46" t="n">
-        <v>3266.205691422519</v>
+        <v>376.063656216586</v>
       </c>
       <c r="F46" t="n">
-        <v>3266.205691422519</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="G46" t="n">
-        <v>3266.205691422519</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="H46" t="n">
-        <v>3266.205691422519</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="I46" t="n">
-        <v>3266.205691422519</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J46" t="n">
-        <v>3285.665005263326</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K46" t="n">
-        <v>3449.053008630018</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L46" t="n">
-        <v>3720.256731718327</v>
+        <v>551.4710044025713</v>
       </c>
       <c r="M46" t="n">
-        <v>4021.44203660462</v>
+        <v>852.6563092888648</v>
       </c>
       <c r="N46" t="n">
-        <v>4313.91860680193</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O46" t="n">
-        <v>4584.228597795069</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P46" t="n">
-        <v>4799.101990217907</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q46" t="n">
-        <v>4870.998205338185</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="R46" t="n">
-        <v>4870.998205338185</v>
+        <v>1620.428692731033</v>
       </c>
       <c r="S46" t="n">
-        <v>4870.998205338185</v>
+        <v>1620.428692731033</v>
       </c>
       <c r="T46" t="n">
-        <v>4631.781006655689</v>
+        <v>1620.428692731033</v>
       </c>
       <c r="U46" t="n">
-        <v>4348.987091631696</v>
+        <v>1620.428692731033</v>
       </c>
       <c r="V46" t="n">
-        <v>4075.101346571218</v>
+        <v>1346.542947670555</v>
       </c>
       <c r="W46" t="n">
-        <v>3796.031682080092</v>
+        <v>1067.47328317943</v>
       </c>
       <c r="X46" t="n">
-        <v>3557.687819939775</v>
+        <v>1067.47328317943</v>
       </c>
       <c r="Y46" t="n">
-        <v>3332.95212132854</v>
+        <v>842.7375845681944</v>
       </c>
     </row>
   </sheetData>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>330.076592815888</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>611.1999600432426</v>
+        <v>590.1064824525349</v>
       </c>
       <c r="L2" t="n">
         <v>617.5489684328704</v>
@@ -7990,19 +7990,19 @@
         <v>93.29022445704545</v>
       </c>
       <c r="N2" t="n">
-        <v>92.91229075661933</v>
+        <v>614.9758611266449</v>
       </c>
       <c r="O2" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P2" t="n">
-        <v>494.5586588013271</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>414.4388617681339</v>
+        <v>90.03380439915205</v>
       </c>
       <c r="R2" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,13 +8057,13 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>516.2361426485535</v>
+        <v>500.8626362276486</v>
       </c>
       <c r="L3" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
         <v>57.56428373841742</v>
@@ -8072,7 +8072,7 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>266.9965351298663</v>
+        <v>579.8150493700256</v>
       </c>
       <c r="P3" t="n">
         <v>576.3232053728293</v>
@@ -8081,7 +8081,7 @@
         <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8218,28 +8218,28 @@
         <v>73.32359133330795</v>
       </c>
       <c r="K5" t="n">
-        <v>549.1401736751965</v>
+        <v>590.1064824525349</v>
       </c>
       <c r="L5" t="n">
         <v>617.5489684328704</v>
       </c>
       <c r="M5" t="n">
-        <v>615.3537948270711</v>
+        <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>615.2533459958087</v>
       </c>
       <c r="P5" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q5" t="n">
         <v>90.03380439915205</v>
       </c>
       <c r="R5" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8300,25 +8300,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>56.11452381084905</v>
+        <v>562.8045877599694</v>
       </c>
       <c r="M6" t="n">
-        <v>425.4271248393441</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
         <v>53.19339339374999</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,25 +8452,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>555.4891820648243</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
         <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
-        <v>614.9758611266449</v>
+        <v>296.1630732760185</v>
       </c>
       <c r="O8" t="n">
         <v>615.2533459958087</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
         <v>90.03380439915205</v>
@@ -8531,16 +8531,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>169.1029840574854</v>
       </c>
       <c r="K9" t="n">
         <v>55.82578278461539</v>
       </c>
       <c r="L9" t="n">
-        <v>557.0846165901669</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
         <v>575.2569637637755</v>
@@ -8549,13 +8549,13 @@
         <v>579.8150493700256</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8774,16 +8774,16 @@
         <v>55.82578278461539</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M12" t="n">
         <v>909.0562844399999</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
-        <v>390.9373608629449</v>
+        <v>605.6544519663084</v>
       </c>
       <c r="P12" t="n">
         <v>54.25963500280375</v>
@@ -9005,31 +9005,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M15" t="n">
-        <v>909.0562844399999</v>
+        <v>418.5520878360603</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M18" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>390.9373608629454</v>
+        <v>57.751479</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>529.7246381472005</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M21" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>42.7123159585636</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>41.02972279421735</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>36.21939520654519</v>
+        <v>432.9231496721353</v>
       </c>
       <c r="M24" t="n">
-        <v>455.990995518149</v>
+        <v>34.34760704978729</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>29.3622403565494</v>
       </c>
       <c r="O24" t="n">
-        <v>768.8192472281761</v>
+        <v>35.95062976461625</v>
       </c>
       <c r="P24" t="n">
-        <v>36.76253149458879</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>44.99626817861592</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>53.3111688958806</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>42.7123159585636</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>41.02972279421735</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>432.9231496721353</v>
       </c>
       <c r="M27" t="n">
-        <v>34.34760704978731</v>
+        <v>34.34760704978729</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>29.3622403565494</v>
       </c>
       <c r="O27" t="n">
-        <v>502.8016768707305</v>
+        <v>35.95062976461625</v>
       </c>
       <c r="P27" t="n">
-        <v>36.76253149458879</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>44.99626817861592</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>53.3111688958806</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>42.7123159585636</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
         <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>723.8803540323523</v>
+        <v>432.9231496721353</v>
       </c>
       <c r="M30" t="n">
-        <v>34.34760704978731</v>
+        <v>34.34760704978729</v>
       </c>
       <c r="N30" t="n">
-        <v>29.36224035654942</v>
+        <v>29.3622403565494</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>35.95062976461625</v>
       </c>
       <c r="P30" t="n">
-        <v>201.8526156448744</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>44.99626817861592</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>53.3111688958806</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>42.7123159585636</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>41.02972279421735</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>36.21939520654519</v>
+        <v>432.9231496721353</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978729</v>
       </c>
       <c r="N33" t="n">
-        <v>29.36224035654942</v>
+        <v>29.3622403565494</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>35.95062976461625</v>
       </c>
       <c r="P33" t="n">
-        <v>490.0113169348051</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>44.99626817861592</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>53.3111688958806</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10667,28 +10667,28 @@
         <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>41.02972279421735</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>723.8803540323523</v>
+        <v>432.9231496721353</v>
       </c>
       <c r="M36" t="n">
-        <v>106.1521285467328</v>
+        <v>34.34760704978729</v>
       </c>
       <c r="N36" t="n">
-        <v>29.36224035654942</v>
+        <v>29.3622403565494</v>
       </c>
       <c r="O36" t="n">
-        <v>768.8192472281761</v>
+        <v>35.95062976461625</v>
       </c>
       <c r="P36" t="n">
-        <v>36.76253149458879</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R36" t="n">
-        <v>53.3111688958806</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>42.7123159585636</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>41.02972279421735</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>36.21939520654519</v>
+        <v>432.9231496721353</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978729</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>29.3622403565494</v>
       </c>
       <c r="O39" t="n">
-        <v>315.7539583063253</v>
+        <v>35.95062976461625</v>
       </c>
       <c r="P39" t="n">
-        <v>36.76253149458879</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>44.99626817861592</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R39" t="n">
-        <v>53.3111688958806</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11080,7 +11080,7 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q41" t="n">
-        <v>414.4388617681332</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R41" t="n">
         <v>128.2784515920617</v>
@@ -11138,31 +11138,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>42.71231595856359</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>41.02972279421733</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>36.21939520654516</v>
+        <v>432.9231496721353</v>
       </c>
       <c r="M42" t="n">
-        <v>455.9909955181487</v>
+        <v>34.34760704978728</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654939</v>
       </c>
       <c r="O42" t="n">
-        <v>768.8192472281761</v>
+        <v>35.95062976461624</v>
       </c>
       <c r="P42" t="n">
-        <v>36.76253149458877</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
-        <v>44.99626817861591</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>53.31116889588059</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11320,7 +11320,7 @@
         <v>414.4388617681339</v>
       </c>
       <c r="R44" t="n">
-        <v>128.2784515920617</v>
+        <v>128.2784515920609</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11375,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>42.71231595856359</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>41.02972279421733</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>36.21939520654516</v>
+        <v>432.9231496721353</v>
       </c>
       <c r="M45" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978728</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654939</v>
       </c>
       <c r="O45" t="n">
-        <v>315.753958306325</v>
+        <v>35.95062976461624</v>
       </c>
       <c r="P45" t="n">
-        <v>36.76253149458877</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>44.99626817861591</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>53.31116889588059</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>54.06597461814522</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23272,10 +23272,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>134.6847134965105</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23308,13 +23308,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23424,19 +23424,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>23.12472639190893</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>8.893130557884461</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23506,10 +23506,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>37.84312462897441</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>404.6410012660961</v>
+        <v>45.55681957367921</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23563,7 +23563,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="15">
@@ -23655,7 +23655,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300456</v>
+        <v>86.52445186445959</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23743,13 +23743,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>307.7994123985592</v>
+        <v>187.9942390719856</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23889,10 +23889,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
-        <v>162.1878147641174</v>
+        <v>53.40246978477396</v>
       </c>
       <c r="U19" t="n">
         <v>279.9701659793371</v>
@@ -23958,7 +23958,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23977,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>134.6847134965114</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -23986,10 +23986,10 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>102.5059940158881</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24025,7 +24025,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
         <v>115.1825854367171</v>
@@ -24174,28 +24174,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>8.893130557884547</v>
       </c>
       <c r="V22" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>177.8444843222619</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24223,7 +24223,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>226.7002559248251</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24265,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>96.67443963873677</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24363,22 +24363,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>141.1159654724726</v>
       </c>
       <c r="D25" t="n">
-        <v>91.59821688448626</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -24414,19 +24414,19 @@
         <v>80.9659474384828</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T25" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24457,13 +24457,13 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>17.78846042958867</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>78.88597920914971</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,7 +24493,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
@@ -24502,7 +24502,7 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>147.8142767156755</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5010685613433</v>
+        <v>32.84411814936925</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>80.9659474384828</v>
       </c>
       <c r="S28" t="n">
-        <v>16.55340683925326</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T28" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>226.7002559248245</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>17.7884604295883</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24837,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>80.9659474384828</v>
       </c>
       <c r="S31" t="n">
-        <v>159.0920824291784</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>279.9659758737533</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>276.2789678462144</v>
+        <v>13.91138868479794</v>
       </c>
       <c r="X31" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="32">
@@ -24973,10 +24973,10 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>226.7002559248242</v>
       </c>
       <c r="V32" t="n">
-        <v>226.7002559248234</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25083,19 +25083,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5010685613433</v>
+        <v>145.9688119103146</v>
       </c>
       <c r="H34" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>80.9659474384828</v>
       </c>
       <c r="S34" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>177.8717964620366</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>226.7002559248248</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25204,10 +25204,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>96.67443963873666</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
@@ -25362,19 +25362,19 @@
         <v>80.9659474384828</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>117.1101460979194</v>
       </c>
       <c r="T37" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>1.578809173309594</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25399,7 +25399,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>226.7002559248241</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25441,13 +25441,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>17.78846042958833</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25566,7 +25566,7 @@
         <v>165.5010685613433</v>
       </c>
       <c r="H40" t="n">
-        <v>109.5440634499357</v>
+        <v>123.0161453437259</v>
       </c>
       <c r="I40" t="n">
         <v>112.8724405582094</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="41">
@@ -25648,7 +25648,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>78.8859792091497</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>17.78846042958918</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25693,7 +25693,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>226.7002559248248</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>52.79101009678517</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,19 +25839,19 @@
         <v>183.1891117048806</v>
       </c>
       <c r="T43" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>130.8974468047274</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -25876,7 +25876,7 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>226.700255924825</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>130.0258162860864</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>96.67443963873755</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26022,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>119.7437437231435</v>
+        <v>41.01692547269442</v>
       </c>
       <c r="C46" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5010685613433</v>
@@ -26043,7 +26043,7 @@
         <v>147.4283934324466</v>
       </c>
       <c r="I46" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>80.9659474384828</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>183.1891117048806</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>667415.9974815387</v>
+        <v>667415.9974815388</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>667415.9974815387</v>
+        <v>667415.9974815386</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>686246.4460434181</v>
+        <v>686246.4460434185</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>686246.4460434181</v>
+        <v>686246.4460434184</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>686246.4460434184</v>
+        <v>686246.4460434183</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>686246.4460434184</v>
+        <v>686246.4460434183</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>686246.4460434184</v>
+        <v>686246.4460434183</v>
       </c>
     </row>
   </sheetData>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472358.9397941253</v>
+      </c>
+      <c r="C2" t="n">
         <v>472358.9397941252</v>
-      </c>
-      <c r="C2" t="n">
-        <v>472358.9397941251</v>
       </c>
       <c r="D2" t="n">
         <v>472358.9397941253</v>
       </c>
       <c r="E2" t="n">
-        <v>419990.5679258858</v>
+        <v>419990.5679258859</v>
       </c>
       <c r="F2" t="n">
-        <v>419990.5679258858</v>
+        <v>419990.5679258857</v>
       </c>
       <c r="G2" t="n">
-        <v>419990.5679258859</v>
+        <v>419990.5679258857</v>
       </c>
       <c r="H2" t="n">
-        <v>419990.5679258858</v>
+        <v>419990.5679258857</v>
       </c>
       <c r="I2" t="n">
-        <v>433884.7810915625</v>
+        <v>433884.7810915623</v>
       </c>
       <c r="J2" t="n">
-        <v>433884.7810915628</v>
+        <v>433884.7810915626</v>
       </c>
       <c r="K2" t="n">
-        <v>433884.7810915627</v>
+        <v>433884.7810915629</v>
       </c>
       <c r="L2" t="n">
         <v>433884.7810915628</v>
@@ -26349,13 +26349,13 @@
         <v>433884.7810915627</v>
       </c>
       <c r="N2" t="n">
-        <v>433884.7810915626</v>
+        <v>433884.7810915627</v>
       </c>
       <c r="O2" t="n">
-        <v>433884.7810915628</v>
+        <v>433884.7810915627</v>
       </c>
       <c r="P2" t="n">
-        <v>433884.7810915624</v>
+        <v>433884.7810915627</v>
       </c>
     </row>
     <row r="3">
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>45948.62261588468</v>
+        <v>45948.62261588477</v>
       </c>
       <c r="J3" t="n">
-        <v>136594.800805895</v>
+        <v>136594.8008058949</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>160358.4505006827</v>
+        <v>160358.4505006828</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26441,7 +26441,7 @@
         <v>73588.2819417936</v>
       </c>
       <c r="J4" t="n">
-        <v>73588.28194179358</v>
+        <v>73588.2819417936</v>
       </c>
       <c r="K4" t="n">
         <v>73588.2819417936</v>
@@ -26456,7 +26456,7 @@
         <v>73588.2819417936</v>
       </c>
       <c r="O4" t="n">
-        <v>73588.28194179358</v>
+        <v>73588.2819417936</v>
       </c>
       <c r="P4" t="n">
         <v>73588.2819417936</v>
@@ -26478,7 +26478,7 @@
         <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
-        <v>70865.21024487333</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="F5" t="n">
         <v>70865.21024487332</v>
@@ -26490,19 +26490,19 @@
         <v>70865.21024487332</v>
       </c>
       <c r="I5" t="n">
-        <v>74967.83978868563</v>
+        <v>74967.83978868564</v>
       </c>
       <c r="J5" t="n">
         <v>74967.83978868563</v>
       </c>
       <c r="K5" t="n">
+        <v>74967.83978868564</v>
+      </c>
+      <c r="L5" t="n">
         <v>74967.83978868563</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>74967.83978868564</v>
-      </c>
-      <c r="M5" t="n">
-        <v>74967.83978868563</v>
       </c>
       <c r="N5" t="n">
         <v>74967.83978868564</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>28631.68105482147</v>
+        <v>28631.68105482167</v>
       </c>
       <c r="C6" t="n">
-        <v>203587.1909479355</v>
+        <v>203587.1909479356</v>
       </c>
       <c r="D6" t="n">
         <v>203587.1909479357</v>
       </c>
       <c r="E6" t="n">
-        <v>82621.23781682795</v>
+        <v>82440.65722417898</v>
       </c>
       <c r="F6" t="n">
-        <v>274751.0007162712</v>
+        <v>274570.4201236219</v>
       </c>
       <c r="G6" t="n">
-        <v>274751.0007162713</v>
+        <v>274570.4201236219</v>
       </c>
       <c r="H6" t="n">
-        <v>274751.0007162712</v>
+        <v>274570.420123622</v>
       </c>
       <c r="I6" t="n">
-        <v>239380.0367451986</v>
+        <v>239247.3672324309</v>
       </c>
       <c r="J6" t="n">
-        <v>148733.8585551886</v>
+        <v>148601.189042421</v>
       </c>
       <c r="K6" t="n">
-        <v>285328.6593610835</v>
+        <v>285195.9898483162</v>
       </c>
       <c r="L6" t="n">
-        <v>285328.6593610835</v>
+        <v>285195.9898483161</v>
       </c>
       <c r="M6" t="n">
-        <v>124970.2088604008</v>
+        <v>124837.5393476333</v>
       </c>
       <c r="N6" t="n">
-        <v>285328.6593610834</v>
+        <v>285195.9898483159</v>
       </c>
       <c r="O6" t="n">
-        <v>285328.6593610836</v>
+        <v>285195.989848316</v>
       </c>
       <c r="P6" t="n">
-        <v>285328.6593610832</v>
+        <v>285195.989848316</v>
       </c>
     </row>
   </sheetData>
@@ -26758,22 +26758,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42.59940676812865</v>
+        <v>42.59940676812869</v>
       </c>
       <c r="J3" t="n">
-        <v>42.59940676812865</v>
+        <v>42.59940676812869</v>
       </c>
       <c r="K3" t="n">
-        <v>42.59940676812865</v>
+        <v>42.59940676812869</v>
       </c>
       <c r="L3" t="n">
-        <v>42.59940676812865</v>
+        <v>42.59940676812869</v>
       </c>
       <c r="M3" t="n">
-        <v>42.59940676812865</v>
+        <v>42.59940676812869</v>
       </c>
       <c r="N3" t="n">
-        <v>42.59940676812865</v>
+        <v>42.59940676812869</v>
       </c>
       <c r="O3" t="n">
         <v>42.59940676812871</v>
@@ -26810,19 +26810,19 @@
         <v>1165.546221132785</v>
       </c>
       <c r="I4" t="n">
-        <v>1217.749551334546</v>
+        <v>1217.749551334547</v>
       </c>
       <c r="J4" t="n">
         <v>1217.749551334546</v>
       </c>
       <c r="K4" t="n">
+        <v>1217.749551334547</v>
+      </c>
+      <c r="L4" t="n">
         <v>1217.749551334546</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>1217.749551334547</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1217.749551334546</v>
       </c>
       <c r="N4" t="n">
         <v>1217.749551334547</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42.59940676812865</v>
+        <v>42.59940676812869</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,31 +27020,31 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
+        <v>643.4826507627594</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>52.20333020176167</v>
+      </c>
+      <c r="J4" t="n">
+        <v>522.0635703700254</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
         <v>643.4826507627596</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>52.20333020176145</v>
-      </c>
-      <c r="J4" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>643.4826507627594</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.4826507627596</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
         <v>400</v>
       </c>
-      <c r="C2" t="n">
-        <v>265.9727661615415</v>
-      </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>252.2565112554261</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.48824505609757</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27435,13 +27435,13 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>396.636963852737</v>
@@ -27539,13 +27539,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>49.8588195694409</v>
       </c>
       <c r="D4" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
         <v>162.9848146305146</v>
@@ -27557,7 +27557,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27590,10 +27590,10 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>237.1532516330649</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>87.18986035345685</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>162.8615927976124</v>
+      </c>
+      <c r="C5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>77.17043497020802</v>
-      </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27633,7 +27633,7 @@
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>307.7994123985592</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="6">
@@ -27773,28 +27773,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>55.1782140190478</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
-        <v>208.4957071359561</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27852,28 +27852,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>279.9073179488088</v>
+        <v>400</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>72.02431607300571</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>307.7994123985592</v>
       </c>
       <c r="I8" t="n">
-        <v>85.48824505609757</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27906,16 +27906,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>396.636963852737</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28019,19 +28019,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>220.6820682567746</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V10" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>248.9256229449252</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1712538965552909</v>
+        <v>0.1712538965552911</v>
       </c>
       <c r="H23" t="n">
-        <v>1.753853968096874</v>
+        <v>1.753853968096875</v>
       </c>
       <c r="I23" t="n">
-        <v>6.60226584694786</v>
+        <v>6.602265846947866</v>
       </c>
       <c r="J23" t="n">
-        <v>14.53496040275964</v>
+        <v>14.53496040275965</v>
       </c>
       <c r="K23" t="n">
-        <v>21.78413784394511</v>
+        <v>21.78413784394512</v>
       </c>
       <c r="L23" t="n">
-        <v>27.0251492806491</v>
+        <v>27.02514928064912</v>
       </c>
       <c r="M23" t="n">
-        <v>30.07068576351425</v>
+        <v>30.07068576351428</v>
       </c>
       <c r="N23" t="n">
-        <v>30.55726089710197</v>
+        <v>30.557260897102</v>
       </c>
       <c r="O23" t="n">
-        <v>28.8543549632303</v>
+        <v>28.85435496323032</v>
       </c>
       <c r="P23" t="n">
-        <v>24.62652439202155</v>
+        <v>24.62652439202157</v>
       </c>
       <c r="Q23" t="n">
-        <v>18.49349422163519</v>
+        <v>18.4934942216352</v>
       </c>
       <c r="R23" t="n">
-        <v>10.7575275794913</v>
+        <v>10.75752757949131</v>
       </c>
       <c r="S23" t="n">
-        <v>3.902448167753696</v>
+        <v>3.9024481677537</v>
       </c>
       <c r="T23" t="n">
-        <v>0.7496639321707864</v>
+        <v>0.7496639321707871</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01370031172442327</v>
+        <v>0.01370031172442328</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09162891267106918</v>
+        <v>0.09162891267106926</v>
       </c>
       <c r="H24" t="n">
-        <v>0.884942393428484</v>
+        <v>0.8849423934284848</v>
       </c>
       <c r="I24" t="n">
-        <v>3.154767388017075</v>
+        <v>3.154767388017078</v>
       </c>
       <c r="J24" t="n">
-        <v>8.65692284143641</v>
+        <v>8.656922841436417</v>
       </c>
       <c r="K24" t="n">
-        <v>14.79605999039804</v>
+        <v>14.79605999039806</v>
       </c>
       <c r="L24" t="n">
-        <v>19.89512860430386</v>
+        <v>19.89512860430388</v>
       </c>
       <c r="M24" t="n">
-        <v>23.21667668863011</v>
+        <v>23.21667668863013</v>
       </c>
       <c r="N24" t="n">
-        <v>23.83115303720058</v>
+        <v>23.8311530372006</v>
       </c>
       <c r="O24" t="n">
-        <v>21.80084923538373</v>
+        <v>21.80084923538374</v>
       </c>
       <c r="P24" t="n">
-        <v>17.49710350821496</v>
+        <v>17.49710350821497</v>
       </c>
       <c r="Q24" t="n">
-        <v>11.6963503262228</v>
+        <v>11.69635032622281</v>
       </c>
       <c r="R24" t="n">
-        <v>5.689030209524806</v>
+        <v>5.689030209524811</v>
       </c>
       <c r="S24" t="n">
-        <v>1.701966864745516</v>
+        <v>1.701966864745518</v>
       </c>
       <c r="T24" t="n">
-        <v>0.3693288190557568</v>
+        <v>0.3693288190557571</v>
       </c>
       <c r="U24" t="n">
-        <v>0.006028217938886133</v>
+        <v>0.006028217938886138</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.07681860236875658</v>
+        <v>0.07681860236875664</v>
       </c>
       <c r="H25" t="n">
-        <v>0.682987210151309</v>
+        <v>0.6829872101513096</v>
       </c>
       <c r="I25" t="n">
-        <v>2.310144878507698</v>
+        <v>2.310144878507701</v>
       </c>
       <c r="J25" t="n">
-        <v>5.43107518747109</v>
+        <v>5.431075187471095</v>
       </c>
       <c r="K25" t="n">
-        <v>8.924924893388262</v>
+        <v>8.924924893388269</v>
       </c>
       <c r="L25" t="n">
-        <v>11.42083111944223</v>
+        <v>11.42083111944224</v>
       </c>
       <c r="M25" t="n">
-        <v>12.0416650967679</v>
+        <v>12.04166509676791</v>
       </c>
       <c r="N25" t="n">
-        <v>11.75534121521164</v>
+        <v>11.75534121521165</v>
       </c>
       <c r="O25" t="n">
-        <v>10.85796026935843</v>
+        <v>10.85796026935844</v>
       </c>
       <c r="P25" t="n">
-        <v>9.290860781035791</v>
+        <v>9.2908607810358</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.432510421987426</v>
+        <v>6.432510421987431</v>
       </c>
       <c r="R25" t="n">
-        <v>3.454043702871545</v>
+        <v>3.454043702871548</v>
       </c>
       <c r="S25" t="n">
-        <v>1.338738734008239</v>
+        <v>1.33873873400824</v>
       </c>
       <c r="T25" t="n">
-        <v>0.328224937393778</v>
+        <v>0.3282249373937783</v>
       </c>
       <c r="U25" t="n">
-        <v>0.004190105583750364</v>
+        <v>0.004190105583750367</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1712538965552909</v>
+        <v>0.1712538965552911</v>
       </c>
       <c r="H26" t="n">
-        <v>1.753853968096874</v>
+        <v>1.753853968096875</v>
       </c>
       <c r="I26" t="n">
-        <v>6.60226584694786</v>
+        <v>6.602265846947866</v>
       </c>
       <c r="J26" t="n">
-        <v>14.53496040275964</v>
+        <v>14.53496040275965</v>
       </c>
       <c r="K26" t="n">
-        <v>21.78413784394511</v>
+        <v>21.78413784394512</v>
       </c>
       <c r="L26" t="n">
-        <v>27.0251492806491</v>
+        <v>27.02514928064912</v>
       </c>
       <c r="M26" t="n">
-        <v>30.07068576351425</v>
+        <v>30.07068576351428</v>
       </c>
       <c r="N26" t="n">
-        <v>30.55726089710197</v>
+        <v>30.557260897102</v>
       </c>
       <c r="O26" t="n">
-        <v>28.8543549632303</v>
+        <v>28.85435496323032</v>
       </c>
       <c r="P26" t="n">
-        <v>24.62652439202155</v>
+        <v>24.62652439202157</v>
       </c>
       <c r="Q26" t="n">
-        <v>18.49349422163519</v>
+        <v>18.4934942216352</v>
       </c>
       <c r="R26" t="n">
-        <v>10.7575275794913</v>
+        <v>10.75752757949131</v>
       </c>
       <c r="S26" t="n">
-        <v>3.902448167753696</v>
+        <v>3.9024481677537</v>
       </c>
       <c r="T26" t="n">
-        <v>0.7496639321707864</v>
+        <v>0.7496639321707871</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01370031172442327</v>
+        <v>0.01370031172442328</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.09162891267106918</v>
+        <v>0.09162891267106926</v>
       </c>
       <c r="H27" t="n">
-        <v>0.884942393428484</v>
+        <v>0.8849423934284848</v>
       </c>
       <c r="I27" t="n">
-        <v>3.154767388017075</v>
+        <v>3.154767388017078</v>
       </c>
       <c r="J27" t="n">
-        <v>8.65692284143641</v>
+        <v>8.656922841436417</v>
       </c>
       <c r="K27" t="n">
-        <v>14.79605999039804</v>
+        <v>14.79605999039806</v>
       </c>
       <c r="L27" t="n">
-        <v>19.89512860430386</v>
+        <v>19.89512860430388</v>
       </c>
       <c r="M27" t="n">
-        <v>23.21667668863011</v>
+        <v>23.21667668863013</v>
       </c>
       <c r="N27" t="n">
-        <v>23.83115303720058</v>
+        <v>23.8311530372006</v>
       </c>
       <c r="O27" t="n">
-        <v>21.80084923538373</v>
+        <v>21.80084923538374</v>
       </c>
       <c r="P27" t="n">
-        <v>17.49710350821496</v>
+        <v>17.49710350821497</v>
       </c>
       <c r="Q27" t="n">
-        <v>11.6963503262228</v>
+        <v>11.69635032622281</v>
       </c>
       <c r="R27" t="n">
-        <v>5.689030209524806</v>
+        <v>5.689030209524811</v>
       </c>
       <c r="S27" t="n">
-        <v>1.701966864745516</v>
+        <v>1.701966864745518</v>
       </c>
       <c r="T27" t="n">
-        <v>0.3693288190557568</v>
+        <v>0.3693288190557571</v>
       </c>
       <c r="U27" t="n">
-        <v>0.006028217938886133</v>
+        <v>0.006028217938886138</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07681860236875658</v>
+        <v>0.07681860236875664</v>
       </c>
       <c r="H28" t="n">
-        <v>0.682987210151309</v>
+        <v>0.6829872101513096</v>
       </c>
       <c r="I28" t="n">
-        <v>2.310144878507698</v>
+        <v>2.310144878507701</v>
       </c>
       <c r="J28" t="n">
-        <v>5.43107518747109</v>
+        <v>5.431075187471095</v>
       </c>
       <c r="K28" t="n">
-        <v>8.924924893388262</v>
+        <v>8.924924893388269</v>
       </c>
       <c r="L28" t="n">
-        <v>11.42083111944223</v>
+        <v>11.42083111944224</v>
       </c>
       <c r="M28" t="n">
-        <v>12.0416650967679</v>
+        <v>12.04166509676791</v>
       </c>
       <c r="N28" t="n">
-        <v>11.75534121521164</v>
+        <v>11.75534121521165</v>
       </c>
       <c r="O28" t="n">
-        <v>10.85796026935843</v>
+        <v>10.85796026935844</v>
       </c>
       <c r="P28" t="n">
-        <v>9.290860781035791</v>
+        <v>9.2908607810358</v>
       </c>
       <c r="Q28" t="n">
-        <v>6.432510421987426</v>
+        <v>6.432510421987431</v>
       </c>
       <c r="R28" t="n">
-        <v>3.454043702871545</v>
+        <v>3.454043702871548</v>
       </c>
       <c r="S28" t="n">
-        <v>1.338738734008239</v>
+        <v>1.33873873400824</v>
       </c>
       <c r="T28" t="n">
-        <v>0.328224937393778</v>
+        <v>0.3282249373937783</v>
       </c>
       <c r="U28" t="n">
-        <v>0.004190105583750364</v>
+        <v>0.004190105583750367</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1712538965552909</v>
+        <v>0.1712538965552911</v>
       </c>
       <c r="H29" t="n">
-        <v>1.753853968096874</v>
+        <v>1.753853968096875</v>
       </c>
       <c r="I29" t="n">
-        <v>6.60226584694786</v>
+        <v>6.602265846947866</v>
       </c>
       <c r="J29" t="n">
-        <v>14.53496040275964</v>
+        <v>14.53496040275965</v>
       </c>
       <c r="K29" t="n">
-        <v>21.78413784394511</v>
+        <v>21.78413784394512</v>
       </c>
       <c r="L29" t="n">
-        <v>27.0251492806491</v>
+        <v>27.02514928064912</v>
       </c>
       <c r="M29" t="n">
-        <v>30.07068576351425</v>
+        <v>30.07068576351428</v>
       </c>
       <c r="N29" t="n">
-        <v>30.55726089710197</v>
+        <v>30.557260897102</v>
       </c>
       <c r="O29" t="n">
-        <v>28.8543549632303</v>
+        <v>28.85435496323032</v>
       </c>
       <c r="P29" t="n">
-        <v>24.62652439202155</v>
+        <v>24.62652439202157</v>
       </c>
       <c r="Q29" t="n">
-        <v>18.49349422163519</v>
+        <v>18.4934942216352</v>
       </c>
       <c r="R29" t="n">
-        <v>10.7575275794913</v>
+        <v>10.75752757949131</v>
       </c>
       <c r="S29" t="n">
-        <v>3.902448167753696</v>
+        <v>3.9024481677537</v>
       </c>
       <c r="T29" t="n">
-        <v>0.7496639321707864</v>
+        <v>0.7496639321707871</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01370031172442327</v>
+        <v>0.01370031172442328</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.09162891267106918</v>
+        <v>0.09162891267106926</v>
       </c>
       <c r="H30" t="n">
-        <v>0.884942393428484</v>
+        <v>0.8849423934284848</v>
       </c>
       <c r="I30" t="n">
-        <v>3.154767388017075</v>
+        <v>3.154767388017078</v>
       </c>
       <c r="J30" t="n">
-        <v>8.65692284143641</v>
+        <v>8.656922841436417</v>
       </c>
       <c r="K30" t="n">
-        <v>14.79605999039804</v>
+        <v>14.79605999039806</v>
       </c>
       <c r="L30" t="n">
-        <v>19.89512860430386</v>
+        <v>19.89512860430388</v>
       </c>
       <c r="M30" t="n">
-        <v>23.21667668863011</v>
+        <v>23.21667668863013</v>
       </c>
       <c r="N30" t="n">
-        <v>23.83115303720058</v>
+        <v>23.8311530372006</v>
       </c>
       <c r="O30" t="n">
-        <v>21.80084923538373</v>
+        <v>21.80084923538374</v>
       </c>
       <c r="P30" t="n">
-        <v>17.49710350821496</v>
+        <v>17.49710350821497</v>
       </c>
       <c r="Q30" t="n">
-        <v>11.6963503262228</v>
+        <v>11.69635032622281</v>
       </c>
       <c r="R30" t="n">
-        <v>5.689030209524806</v>
+        <v>5.689030209524811</v>
       </c>
       <c r="S30" t="n">
-        <v>1.701966864745516</v>
+        <v>1.701966864745518</v>
       </c>
       <c r="T30" t="n">
-        <v>0.3693288190557568</v>
+        <v>0.3693288190557571</v>
       </c>
       <c r="U30" t="n">
-        <v>0.006028217938886133</v>
+        <v>0.006028217938886138</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.07681860236875658</v>
+        <v>0.07681860236875664</v>
       </c>
       <c r="H31" t="n">
-        <v>0.682987210151309</v>
+        <v>0.6829872101513096</v>
       </c>
       <c r="I31" t="n">
-        <v>2.310144878507698</v>
+        <v>2.310144878507701</v>
       </c>
       <c r="J31" t="n">
-        <v>5.43107518747109</v>
+        <v>5.431075187471095</v>
       </c>
       <c r="K31" t="n">
-        <v>8.924924893388262</v>
+        <v>8.924924893388269</v>
       </c>
       <c r="L31" t="n">
-        <v>11.42083111944223</v>
+        <v>11.42083111944224</v>
       </c>
       <c r="M31" t="n">
-        <v>12.0416650967679</v>
+        <v>12.04166509676791</v>
       </c>
       <c r="N31" t="n">
-        <v>11.75534121521164</v>
+        <v>11.75534121521165</v>
       </c>
       <c r="O31" t="n">
-        <v>10.85796026935843</v>
+        <v>10.85796026935844</v>
       </c>
       <c r="P31" t="n">
-        <v>9.290860781035791</v>
+        <v>9.2908607810358</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.432510421987426</v>
+        <v>6.432510421987431</v>
       </c>
       <c r="R31" t="n">
-        <v>3.454043702871545</v>
+        <v>3.454043702871548</v>
       </c>
       <c r="S31" t="n">
-        <v>1.338738734008239</v>
+        <v>1.33873873400824</v>
       </c>
       <c r="T31" t="n">
-        <v>0.328224937393778</v>
+        <v>0.3282249373937783</v>
       </c>
       <c r="U31" t="n">
-        <v>0.004190105583750364</v>
+        <v>0.004190105583750367</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1712538965552909</v>
+        <v>0.1712538965552911</v>
       </c>
       <c r="H32" t="n">
-        <v>1.753853968096874</v>
+        <v>1.753853968096875</v>
       </c>
       <c r="I32" t="n">
-        <v>6.60226584694786</v>
+        <v>6.602265846947866</v>
       </c>
       <c r="J32" t="n">
-        <v>14.53496040275964</v>
+        <v>14.53496040275965</v>
       </c>
       <c r="K32" t="n">
-        <v>21.78413784394511</v>
+        <v>21.78413784394512</v>
       </c>
       <c r="L32" t="n">
-        <v>27.0251492806491</v>
+        <v>27.02514928064912</v>
       </c>
       <c r="M32" t="n">
-        <v>30.07068576351425</v>
+        <v>30.07068576351428</v>
       </c>
       <c r="N32" t="n">
-        <v>30.55726089710197</v>
+        <v>30.557260897102</v>
       </c>
       <c r="O32" t="n">
-        <v>28.8543549632303</v>
+        <v>28.85435496323032</v>
       </c>
       <c r="P32" t="n">
-        <v>24.62652439202155</v>
+        <v>24.62652439202157</v>
       </c>
       <c r="Q32" t="n">
-        <v>18.49349422163519</v>
+        <v>18.4934942216352</v>
       </c>
       <c r="R32" t="n">
-        <v>10.7575275794913</v>
+        <v>10.75752757949131</v>
       </c>
       <c r="S32" t="n">
-        <v>3.902448167753696</v>
+        <v>3.9024481677537</v>
       </c>
       <c r="T32" t="n">
-        <v>0.7496639321707864</v>
+        <v>0.7496639321707871</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01370031172442327</v>
+        <v>0.01370031172442328</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.09162891267106918</v>
+        <v>0.09162891267106926</v>
       </c>
       <c r="H33" t="n">
-        <v>0.884942393428484</v>
+        <v>0.8849423934284848</v>
       </c>
       <c r="I33" t="n">
-        <v>3.154767388017075</v>
+        <v>3.154767388017078</v>
       </c>
       <c r="J33" t="n">
-        <v>8.65692284143641</v>
+        <v>8.656922841436417</v>
       </c>
       <c r="K33" t="n">
-        <v>14.79605999039804</v>
+        <v>14.79605999039806</v>
       </c>
       <c r="L33" t="n">
-        <v>19.89512860430386</v>
+        <v>19.89512860430388</v>
       </c>
       <c r="M33" t="n">
-        <v>23.21667668863011</v>
+        <v>23.21667668863013</v>
       </c>
       <c r="N33" t="n">
-        <v>23.83115303720058</v>
+        <v>23.8311530372006</v>
       </c>
       <c r="O33" t="n">
-        <v>21.80084923538373</v>
+        <v>21.80084923538374</v>
       </c>
       <c r="P33" t="n">
-        <v>17.49710350821496</v>
+        <v>17.49710350821497</v>
       </c>
       <c r="Q33" t="n">
-        <v>11.6963503262228</v>
+        <v>11.69635032622281</v>
       </c>
       <c r="R33" t="n">
-        <v>5.689030209524806</v>
+        <v>5.689030209524811</v>
       </c>
       <c r="S33" t="n">
-        <v>1.701966864745516</v>
+        <v>1.701966864745518</v>
       </c>
       <c r="T33" t="n">
-        <v>0.3693288190557568</v>
+        <v>0.3693288190557571</v>
       </c>
       <c r="U33" t="n">
-        <v>0.006028217938886133</v>
+        <v>0.006028217938886138</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.07681860236875658</v>
+        <v>0.07681860236875664</v>
       </c>
       <c r="H34" t="n">
-        <v>0.682987210151309</v>
+        <v>0.6829872101513096</v>
       </c>
       <c r="I34" t="n">
-        <v>2.310144878507698</v>
+        <v>2.310144878507701</v>
       </c>
       <c r="J34" t="n">
-        <v>5.43107518747109</v>
+        <v>5.431075187471095</v>
       </c>
       <c r="K34" t="n">
-        <v>8.924924893388262</v>
+        <v>8.924924893388269</v>
       </c>
       <c r="L34" t="n">
-        <v>11.42083111944223</v>
+        <v>11.42083111944224</v>
       </c>
       <c r="M34" t="n">
-        <v>12.0416650967679</v>
+        <v>12.04166509676791</v>
       </c>
       <c r="N34" t="n">
-        <v>11.75534121521164</v>
+        <v>11.75534121521165</v>
       </c>
       <c r="O34" t="n">
-        <v>10.85796026935843</v>
+        <v>10.85796026935844</v>
       </c>
       <c r="P34" t="n">
-        <v>9.290860781035791</v>
+        <v>9.2908607810358</v>
       </c>
       <c r="Q34" t="n">
-        <v>6.432510421987426</v>
+        <v>6.432510421987431</v>
       </c>
       <c r="R34" t="n">
-        <v>3.454043702871545</v>
+        <v>3.454043702871548</v>
       </c>
       <c r="S34" t="n">
-        <v>1.338738734008239</v>
+        <v>1.33873873400824</v>
       </c>
       <c r="T34" t="n">
-        <v>0.328224937393778</v>
+        <v>0.3282249373937783</v>
       </c>
       <c r="U34" t="n">
-        <v>0.004190105583750364</v>
+        <v>0.004190105583750367</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1712538965552909</v>
+        <v>0.1712538965552911</v>
       </c>
       <c r="H35" t="n">
-        <v>1.753853968096874</v>
+        <v>1.753853968096875</v>
       </c>
       <c r="I35" t="n">
-        <v>6.60226584694786</v>
+        <v>6.602265846947866</v>
       </c>
       <c r="J35" t="n">
-        <v>14.53496040275964</v>
+        <v>14.53496040275965</v>
       </c>
       <c r="K35" t="n">
-        <v>21.78413784394511</v>
+        <v>21.78413784394512</v>
       </c>
       <c r="L35" t="n">
-        <v>27.0251492806491</v>
+        <v>27.02514928064912</v>
       </c>
       <c r="M35" t="n">
-        <v>30.07068576351425</v>
+        <v>30.07068576351428</v>
       </c>
       <c r="N35" t="n">
-        <v>30.55726089710197</v>
+        <v>30.557260897102</v>
       </c>
       <c r="O35" t="n">
-        <v>28.8543549632303</v>
+        <v>28.85435496323032</v>
       </c>
       <c r="P35" t="n">
-        <v>24.62652439202155</v>
+        <v>24.62652439202157</v>
       </c>
       <c r="Q35" t="n">
-        <v>18.49349422163519</v>
+        <v>18.4934942216352</v>
       </c>
       <c r="R35" t="n">
-        <v>10.7575275794913</v>
+        <v>10.75752757949131</v>
       </c>
       <c r="S35" t="n">
-        <v>3.902448167753696</v>
+        <v>3.9024481677537</v>
       </c>
       <c r="T35" t="n">
-        <v>0.7496639321707864</v>
+        <v>0.7496639321707871</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01370031172442327</v>
+        <v>0.01370031172442328</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.09162891267106918</v>
+        <v>0.09162891267106926</v>
       </c>
       <c r="H36" t="n">
-        <v>0.884942393428484</v>
+        <v>0.8849423934284848</v>
       </c>
       <c r="I36" t="n">
-        <v>3.154767388017075</v>
+        <v>3.154767388017078</v>
       </c>
       <c r="J36" t="n">
-        <v>8.65692284143641</v>
+        <v>8.656922841436417</v>
       </c>
       <c r="K36" t="n">
-        <v>14.79605999039804</v>
+        <v>14.79605999039806</v>
       </c>
       <c r="L36" t="n">
-        <v>19.89512860430386</v>
+        <v>19.89512860430388</v>
       </c>
       <c r="M36" t="n">
-        <v>23.21667668863011</v>
+        <v>23.21667668863013</v>
       </c>
       <c r="N36" t="n">
-        <v>23.83115303720058</v>
+        <v>23.8311530372006</v>
       </c>
       <c r="O36" t="n">
-        <v>21.80084923538373</v>
+        <v>21.80084923538374</v>
       </c>
       <c r="P36" t="n">
-        <v>17.49710350821496</v>
+        <v>17.49710350821497</v>
       </c>
       <c r="Q36" t="n">
-        <v>11.6963503262228</v>
+        <v>11.69635032622281</v>
       </c>
       <c r="R36" t="n">
-        <v>5.689030209524806</v>
+        <v>5.689030209524811</v>
       </c>
       <c r="S36" t="n">
-        <v>1.701966864745516</v>
+        <v>1.701966864745518</v>
       </c>
       <c r="T36" t="n">
-        <v>0.3693288190557568</v>
+        <v>0.3693288190557571</v>
       </c>
       <c r="U36" t="n">
-        <v>0.006028217938886133</v>
+        <v>0.006028217938886138</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.07681860236875658</v>
+        <v>0.07681860236875664</v>
       </c>
       <c r="H37" t="n">
-        <v>0.682987210151309</v>
+        <v>0.6829872101513096</v>
       </c>
       <c r="I37" t="n">
-        <v>2.310144878507698</v>
+        <v>2.310144878507701</v>
       </c>
       <c r="J37" t="n">
-        <v>5.43107518747109</v>
+        <v>5.431075187471095</v>
       </c>
       <c r="K37" t="n">
-        <v>8.924924893388262</v>
+        <v>8.924924893388269</v>
       </c>
       <c r="L37" t="n">
-        <v>11.42083111944223</v>
+        <v>11.42083111944224</v>
       </c>
       <c r="M37" t="n">
-        <v>12.0416650967679</v>
+        <v>12.04166509676791</v>
       </c>
       <c r="N37" t="n">
-        <v>11.75534121521164</v>
+        <v>11.75534121521165</v>
       </c>
       <c r="O37" t="n">
-        <v>10.85796026935843</v>
+        <v>10.85796026935844</v>
       </c>
       <c r="P37" t="n">
-        <v>9.290860781035791</v>
+        <v>9.2908607810358</v>
       </c>
       <c r="Q37" t="n">
-        <v>6.432510421987426</v>
+        <v>6.432510421987431</v>
       </c>
       <c r="R37" t="n">
-        <v>3.454043702871545</v>
+        <v>3.454043702871548</v>
       </c>
       <c r="S37" t="n">
-        <v>1.338738734008239</v>
+        <v>1.33873873400824</v>
       </c>
       <c r="T37" t="n">
-        <v>0.328224937393778</v>
+        <v>0.3282249373937783</v>
       </c>
       <c r="U37" t="n">
-        <v>0.004190105583750364</v>
+        <v>0.004190105583750367</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1712538965552909</v>
+        <v>0.1712538965552911</v>
       </c>
       <c r="H38" t="n">
-        <v>1.753853968096874</v>
+        <v>1.753853968096875</v>
       </c>
       <c r="I38" t="n">
-        <v>6.60226584694786</v>
+        <v>6.602265846947866</v>
       </c>
       <c r="J38" t="n">
-        <v>14.53496040275964</v>
+        <v>14.53496040275965</v>
       </c>
       <c r="K38" t="n">
-        <v>21.78413784394511</v>
+        <v>21.78413784394512</v>
       </c>
       <c r="L38" t="n">
-        <v>27.0251492806491</v>
+        <v>27.02514928064912</v>
       </c>
       <c r="M38" t="n">
-        <v>30.07068576351425</v>
+        <v>30.07068576351428</v>
       </c>
       <c r="N38" t="n">
-        <v>30.55726089710197</v>
+        <v>30.557260897102</v>
       </c>
       <c r="O38" t="n">
-        <v>28.8543549632303</v>
+        <v>28.85435496323032</v>
       </c>
       <c r="P38" t="n">
-        <v>24.62652439202155</v>
+        <v>24.62652439202157</v>
       </c>
       <c r="Q38" t="n">
-        <v>18.49349422163519</v>
+        <v>18.4934942216352</v>
       </c>
       <c r="R38" t="n">
-        <v>10.7575275794913</v>
+        <v>10.75752757949131</v>
       </c>
       <c r="S38" t="n">
-        <v>3.902448167753696</v>
+        <v>3.9024481677537</v>
       </c>
       <c r="T38" t="n">
-        <v>0.7496639321707864</v>
+        <v>0.7496639321707871</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01370031172442327</v>
+        <v>0.01370031172442328</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.09162891267106918</v>
+        <v>0.09162891267106926</v>
       </c>
       <c r="H39" t="n">
-        <v>0.884942393428484</v>
+        <v>0.8849423934284848</v>
       </c>
       <c r="I39" t="n">
-        <v>3.154767388017075</v>
+        <v>3.154767388017078</v>
       </c>
       <c r="J39" t="n">
-        <v>8.65692284143641</v>
+        <v>8.656922841436417</v>
       </c>
       <c r="K39" t="n">
-        <v>14.79605999039804</v>
+        <v>14.79605999039806</v>
       </c>
       <c r="L39" t="n">
-        <v>19.89512860430386</v>
+        <v>19.89512860430388</v>
       </c>
       <c r="M39" t="n">
-        <v>23.21667668863011</v>
+        <v>23.21667668863013</v>
       </c>
       <c r="N39" t="n">
-        <v>23.83115303720058</v>
+        <v>23.8311530372006</v>
       </c>
       <c r="O39" t="n">
-        <v>21.80084923538373</v>
+        <v>21.80084923538374</v>
       </c>
       <c r="P39" t="n">
-        <v>17.49710350821496</v>
+        <v>17.49710350821497</v>
       </c>
       <c r="Q39" t="n">
-        <v>11.6963503262228</v>
+        <v>11.69635032622281</v>
       </c>
       <c r="R39" t="n">
-        <v>5.689030209524806</v>
+        <v>5.689030209524811</v>
       </c>
       <c r="S39" t="n">
-        <v>1.701966864745516</v>
+        <v>1.701966864745518</v>
       </c>
       <c r="T39" t="n">
-        <v>0.3693288190557568</v>
+        <v>0.3693288190557571</v>
       </c>
       <c r="U39" t="n">
-        <v>0.006028217938886133</v>
+        <v>0.006028217938886138</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.07681860236875658</v>
+        <v>0.07681860236875664</v>
       </c>
       <c r="H40" t="n">
-        <v>0.682987210151309</v>
+        <v>0.6829872101513096</v>
       </c>
       <c r="I40" t="n">
-        <v>2.310144878507698</v>
+        <v>2.310144878507701</v>
       </c>
       <c r="J40" t="n">
-        <v>5.43107518747109</v>
+        <v>5.431075187471095</v>
       </c>
       <c r="K40" t="n">
-        <v>8.924924893388262</v>
+        <v>8.924924893388269</v>
       </c>
       <c r="L40" t="n">
-        <v>11.42083111944223</v>
+        <v>11.42083111944224</v>
       </c>
       <c r="M40" t="n">
-        <v>12.0416650967679</v>
+        <v>12.04166509676791</v>
       </c>
       <c r="N40" t="n">
-        <v>11.75534121521164</v>
+        <v>11.75534121521165</v>
       </c>
       <c r="O40" t="n">
-        <v>10.85796026935843</v>
+        <v>10.85796026935844</v>
       </c>
       <c r="P40" t="n">
-        <v>9.290860781035791</v>
+        <v>9.2908607810358</v>
       </c>
       <c r="Q40" t="n">
-        <v>6.432510421987426</v>
+        <v>6.432510421987431</v>
       </c>
       <c r="R40" t="n">
-        <v>3.454043702871545</v>
+        <v>3.454043702871548</v>
       </c>
       <c r="S40" t="n">
-        <v>1.338738734008239</v>
+        <v>1.33873873400824</v>
       </c>
       <c r="T40" t="n">
-        <v>0.328224937393778</v>
+        <v>0.3282249373937783</v>
       </c>
       <c r="U40" t="n">
-        <v>0.004190105583750364</v>
+        <v>0.004190105583750367</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34698,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>256.7530014825801</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>522.0635703700256</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="L2" t="n">
         <v>522.0635703700256</v>
@@ -34710,19 +34710,19 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="P2" t="n">
-        <v>400.9092955204429</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>324.4050573689818</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,22 +34777,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>460.4103598639381</v>
+        <v>445.0368534430332</v>
       </c>
       <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>209.2450561298663</v>
       </c>
       <c r="P3" t="n">
         <v>522.0635703700256</v>
@@ -34801,7 +34801,7 @@
         <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34938,28 +34938,28 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>460.0037840019794</v>
+        <v>500.9700927793178</v>
       </c>
       <c r="L5" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="N5" t="n">
+      <c r="P5" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
-      </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35020,25 +35020,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>506.6900639491204</v>
       </c>
       <c r="M6" t="n">
-        <v>367.8628411009267</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,25 +35172,25 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>460.0037840019794</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="N8" t="n">
-        <v>522.0635703700256</v>
+        <v>203.2507825193992</v>
       </c>
       <c r="O8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35251,16 +35251,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>117.7337452574854</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>500.9700927793178</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>522.0635703700256</v>
@@ -35269,13 +35269,13 @@
         <v>522.0635703700256</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35494,16 +35494,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M12" t="n">
         <v>851.4920007015825</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>333.1858818629449</v>
+        <v>547.9029729663084</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35725,31 +35725,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>667.7658302215033</v>
       </c>
       <c r="M15" t="n">
-        <v>851.4920007015825</v>
+        <v>360.9878040976428</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M18" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>333.1858818629454</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>473.6101143363514</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36381,7 +36381,7 @@
         <v>342.898551590617</v>
       </c>
       <c r="R23" t="n">
-        <v>51.7238363568295</v>
+        <v>51.72383635682951</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,31 +36436,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="M24" t="n">
-        <v>421.6433884683616</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>732.8686174635598</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>365.0745974817615</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>35.54713057581763</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36618,7 +36618,7 @@
         <v>342.898551590617</v>
       </c>
       <c r="R26" t="n">
-        <v>51.7238363568295</v>
+        <v>51.72383635682951</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,31 +36673,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L27" t="n">
-        <v>687.6609588258071</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>466.8510471061143</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>365.0745974817615</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>35.54713057581763</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36855,7 +36855,7 @@
         <v>342.898551590617</v>
       </c>
       <c r="R29" t="n">
-        <v>51.7238363568295</v>
+        <v>51.72383635682951</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K30" t="n">
-        <v>475.2064198543361</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L30" t="n">
-        <v>687.6609588258071</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -36925,16 +36925,16 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>732.8686174635598</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>165.0900841502856</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>365.0745974817615</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>35.54713057581763</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37092,7 +37092,7 @@
         <v>342.898551590617</v>
       </c>
       <c r="R32" t="n">
-        <v>51.7238363568295</v>
+        <v>51.72383635682951</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,31 +37147,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="M33" t="n">
-        <v>874.7086773902125</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>732.8686174635598</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>453.2487854402163</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>365.0745974817615</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>35.54713057581763</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37329,7 +37329,7 @@
         <v>342.898551590617</v>
       </c>
       <c r="R35" t="n">
-        <v>51.7238363568295</v>
+        <v>51.72383635682951</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,31 +37384,31 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>203.4173850259144</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L36" t="n">
-        <v>687.6609588258071</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="M36" t="n">
-        <v>71.8045214969455</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>732.8686174635598</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q36" t="n">
         <v>365.0745974817615</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>35.54713057581763</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37566,7 +37566,7 @@
         <v>342.898551590617</v>
       </c>
       <c r="R38" t="n">
-        <v>51.7238363568295</v>
+        <v>51.72383635682951</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,31 +37621,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="M39" t="n">
-        <v>874.7086773902125</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>279.803328541709</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>365.0745974817615</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>35.54713057581763</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37800,7 +37800,7 @@
         <v>559.1282394618715</v>
       </c>
       <c r="Q41" t="n">
-        <v>342.8985515906164</v>
+        <v>342.898551590617</v>
       </c>
       <c r="R41" t="n">
         <v>51.72383635682952</v>
@@ -37858,31 +37858,31 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="M42" t="n">
-        <v>421.6433884683614</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>732.8686174635599</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>365.0745974817615</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>35.54713057581764</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38040,7 +38040,7 @@
         <v>342.898551590617</v>
       </c>
       <c r="R44" t="n">
-        <v>51.72383635682952</v>
+        <v>51.72383635682869</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="M45" t="n">
-        <v>874.7086773902126</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>279.8033285417088</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>365.0745974817615</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>35.54713057581764</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
